--- a/data/MetalliCan/sample_ids.xlsx
+++ b/data/MetalliCan/sample_ids.xlsx
@@ -1,27 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/MetalliCan/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_5045890F2308807C8727A28905E2F589793EC82E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48BD243F-03C2-45D0-A7B2-9859ABAFFD70}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ta_technosphere_biosphere" sheetId="1" r:id="rId1"/>
     <sheet name="ta_biosphere" sheetId="2" r:id="rId2"/>
-    <sheet name="technosphere_biosphere" sheetId="3" r:id="rId3"/>
+    <sheet name="technosphere" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ta_biosphere!$A$1:$V$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_technosphere_biosphere!$A$1:$V$23</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -94,70 +84,97 @@
     <t>source_id</t>
   </si>
   <si>
+    <t>BC-MAIN-599152a0</t>
+  </si>
+  <si>
+    <t>BC-MAIN-6b4800fe</t>
+  </si>
+  <si>
+    <t>BC-MAIN-857b7b89</t>
+  </si>
+  <si>
+    <t>BC-MAIN-8eb8be0d</t>
+  </si>
+  <si>
+    <t>BC-MAIN-aa76f6f2</t>
+  </si>
+  <si>
+    <t>BC-MAIN-ed23117f</t>
+  </si>
+  <si>
+    <t>ON-MAIN-0aadf28f</t>
+  </si>
+  <si>
+    <t>ON-MAIN-1c674cd0</t>
+  </si>
+  <si>
+    <t>ON-MAIN-538513cd</t>
+  </si>
+  <si>
     <t>ON-MAIN-687b8c8d</t>
   </si>
   <si>
     <t>ON-MAIN-7607a50e</t>
   </si>
   <si>
-    <t>BC-MAIN-ed23117f</t>
+    <t>ON-MAIN-8629a493</t>
+  </si>
+  <si>
+    <t>ON-MAIN-a3c56a83</t>
+  </si>
+  <si>
+    <t>ON-MAIN-bfbcd72e</t>
+  </si>
+  <si>
+    <t>ON-MAIN-c5fefb01</t>
+  </si>
+  <si>
+    <t>ON-MAIN-f3e6ff08</t>
+  </si>
+  <si>
+    <t>ON-MAIN-fefeaee4</t>
+  </si>
+  <si>
+    <t>QC-MAIN-02884fb5</t>
+  </si>
+  <si>
+    <t>QC-MAIN-9de9bb0d</t>
   </si>
   <si>
     <t>QC-MAIN-f9e41c2a</t>
   </si>
   <si>
-    <t>BC-MAIN-599152a0</t>
-  </si>
-  <si>
-    <t>QC-MAIN-02884fb5</t>
-  </si>
-  <si>
-    <t>ON-MAIN-a3c56a83</t>
-  </si>
-  <si>
-    <t>BC-MAIN-aa76f6f2</t>
-  </si>
-  <si>
-    <t>ON-MAIN-0aadf28f</t>
-  </si>
-  <si>
-    <t>ON-MAIN-1c674cd0</t>
-  </si>
-  <si>
-    <t>BC-MAIN-857b7b89</t>
-  </si>
-  <si>
-    <t>ON-MAIN-8629a493</t>
-  </si>
-  <si>
-    <t>ON-MAIN-538513cd</t>
-  </si>
-  <si>
-    <t>ON-MAIN-fefeaee4</t>
-  </si>
-  <si>
-    <t>BC-MAIN-8eb8be0d</t>
-  </si>
-  <si>
-    <t>ON-MAIN-bfbcd72e</t>
-  </si>
-  <si>
-    <t>ON-MAIN-f3e6ff08</t>
-  </si>
-  <si>
     <t>SK-MAIN-22ce14be</t>
   </si>
   <si>
     <t>SK-MAIN-29afbdb5</t>
   </si>
   <si>
-    <t>BC-MAIN-6b4800fe</t>
-  </si>
-  <si>
-    <t>QC-MAIN-9de9bb0d</t>
-  </si>
-  <si>
-    <t>ON-MAIN-c5fefb01</t>
+    <t>Copper Mountain</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Brucejack</t>
+  </si>
+  <si>
+    <t>Red Chris</t>
+  </si>
+  <si>
+    <t>New Afton</t>
+  </si>
+  <si>
+    <t>Mount Milligan</t>
+  </si>
+  <si>
+    <t>Rainy River</t>
+  </si>
+  <si>
+    <t>Borden</t>
+  </si>
+  <si>
+    <t>Hoyle Pond</t>
   </si>
   <si>
     <t>Island</t>
@@ -166,66 +183,39 @@
     <t>Young-Davidson</t>
   </si>
   <si>
-    <t>Mount Milligan</t>
+    <t>Hollinger</t>
+  </si>
+  <si>
+    <t>Lac des Iles</t>
+  </si>
+  <si>
+    <t>Bell Creek</t>
+  </si>
+  <si>
+    <t>Mishi</t>
+  </si>
+  <si>
+    <t>Timmins West</t>
+  </si>
+  <si>
+    <t>Musselwhite</t>
+  </si>
+  <si>
+    <t>Westwood-Doyon</t>
+  </si>
+  <si>
+    <t>Kiena</t>
   </si>
   <si>
     <t>Lamaque</t>
   </si>
   <si>
-    <t>Copper Mountain</t>
-  </si>
-  <si>
-    <t>Westwood-Doyon</t>
-  </si>
-  <si>
-    <t>Lac des Iles</t>
-  </si>
-  <si>
-    <t>New Afton</t>
-  </si>
-  <si>
-    <t>Rainy River</t>
-  </si>
-  <si>
-    <t>Borden</t>
-  </si>
-  <si>
-    <t>Brucejack</t>
-  </si>
-  <si>
-    <t>Hollinger</t>
-  </si>
-  <si>
-    <t>Hoyle Pond</t>
-  </si>
-  <si>
-    <t>Musselwhite</t>
-  </si>
-  <si>
-    <t>Red Chris</t>
-  </si>
-  <si>
-    <t>Bell Creek</t>
-  </si>
-  <si>
-    <t>Timmins West</t>
-  </si>
-  <si>
     <t>Santoy</t>
   </si>
   <si>
     <t>Seabee</t>
   </si>
   <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Kiena</t>
-  </si>
-  <si>
-    <t>Mishi</t>
-  </si>
-  <si>
     <t>GRP-0d911886</t>
   </si>
   <si>
@@ -244,76 +234,103 @@
     <t>Seabee Gold Operation</t>
   </si>
   <si>
+    <t>CMP-12afc634</t>
+  </si>
+  <si>
+    <t>CMP-e35f138c</t>
+  </si>
+  <si>
+    <t>CMP-4a434d72</t>
+  </si>
+  <si>
+    <t>CMP-d94be190</t>
+  </si>
+  <si>
+    <t>CMP-fa032e20</t>
+  </si>
+  <si>
     <t>CMP-3a4ccc7f</t>
   </si>
   <si>
-    <t>CMP-fa032e20</t>
+    <t>CMP-967076a1</t>
+  </si>
+  <si>
+    <t>CMP-48a36546</t>
+  </si>
+  <si>
+    <t>CMP-3d2c4955</t>
+  </si>
+  <si>
+    <t>CMP-3d0a95b7</t>
   </si>
   <si>
     <t>CMP-64d60fd7</t>
   </si>
   <si>
-    <t>CMP-12afc634</t>
-  </si>
-  <si>
-    <t>CMP-3d0a95b7</t>
-  </si>
-  <si>
-    <t>CMP-967076a1</t>
-  </si>
-  <si>
-    <t>CMP-d94be190</t>
-  </si>
-  <si>
-    <t>CMP-4a434d72</t>
-  </si>
-  <si>
-    <t>CMP-48a36546</t>
-  </si>
-  <si>
     <t>CMP-4a73c5f8</t>
   </si>
   <si>
-    <t>CMP-e35f138c</t>
-  </si>
-  <si>
-    <t>CMP-3d2c4955</t>
+    <t>Hudbay Minerals Inc</t>
+  </si>
+  <si>
+    <t>Taseko Mines Limited</t>
+  </si>
+  <si>
+    <t>Newmont Corporation</t>
+  </si>
+  <si>
+    <t>New Gold Inc</t>
+  </si>
+  <si>
+    <t>Centerra Gold Inc</t>
   </si>
   <si>
     <t>Alamos Gold Inc</t>
   </si>
   <si>
-    <t>Centerra Gold Inc</t>
+    <t>Impala Canada Ltd</t>
+  </si>
+  <si>
+    <t>Pan American Silver Corp</t>
+  </si>
+  <si>
+    <t>Wesdome Gold Mines Ltd</t>
+  </si>
+  <si>
+    <t>IAMGOLD Corporation</t>
   </si>
   <si>
     <t>Eldorado Gold</t>
   </si>
   <si>
-    <t>Hudbay Minerals Inc</t>
-  </si>
-  <si>
-    <t>IAMGOLD Corporation</t>
-  </si>
-  <si>
-    <t>Impala Canada Ltd</t>
-  </si>
-  <si>
-    <t>New Gold Inc</t>
-  </si>
-  <si>
-    <t>Newmont Corporation</t>
-  </si>
-  <si>
-    <t>Pan American Silver Corp</t>
-  </si>
-  <si>
     <t>SSR Mining Inc</t>
   </si>
   <si>
-    <t>Taseko Mines Limited</t>
-  </si>
-  <si>
-    <t>Wesdome Gold Mines Ltd</t>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>north of Williams Lake</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Kinaskan Lake</t>
+  </si>
+  <si>
+    <t>Kamloops</t>
+  </si>
+  <si>
+    <t>Fort St. James</t>
+  </si>
+  <si>
+    <t>Fort Frances</t>
+  </si>
+  <si>
+    <t>Chapleau</t>
+  </si>
+  <si>
+    <t>south of Porcupine</t>
   </si>
   <si>
     <t>Dubreuilville</t>
@@ -322,63 +339,36 @@
     <t>Matachewan</t>
   </si>
   <si>
-    <t>Fort St. James</t>
+    <t>Timmins</t>
+  </si>
+  <si>
+    <t>Thunder Bay</t>
+  </si>
+  <si>
+    <t>Wawa</t>
+  </si>
+  <si>
+    <t>north of Pickle Lake</t>
+  </si>
+  <si>
+    <t>Cadillac</t>
   </si>
   <si>
     <t>Val-d’Or</t>
   </si>
   <si>
-    <t>Princeton</t>
-  </si>
-  <si>
-    <t>Cadillac</t>
-  </si>
-  <si>
-    <t>Thunder Bay</t>
-  </si>
-  <si>
-    <t>Kamloops</t>
-  </si>
-  <si>
-    <t>Fort Frances</t>
-  </si>
-  <si>
-    <t>Chapleau</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>Timmins</t>
-  </si>
-  <si>
-    <t>south of Porcupine</t>
-  </si>
-  <si>
-    <t>north of Pickle Lake</t>
-  </si>
-  <si>
-    <t>Kinaskan Lake</t>
-  </si>
-  <si>
     <t>Santoy Lake</t>
   </si>
   <si>
     <t>Laonil Lake</t>
   </si>
   <si>
-    <t>north of Williams Lake</t>
-  </si>
-  <si>
-    <t>Wawa</t>
+    <t>British Columbia</t>
   </si>
   <si>
     <t>Ontario</t>
   </si>
   <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
     <t>Quebec</t>
   </si>
   <si>
@@ -391,106 +381,127 @@
     <t>mining</t>
   </si>
   <si>
+    <t>Open-pit, concentrator</t>
+  </si>
+  <si>
     <t>Underground, concentrator</t>
   </si>
   <si>
-    <t>Open-pit, concentrator</t>
-  </si>
-  <si>
     <t>Open-pit, underground, concentrator</t>
   </si>
   <si>
     <t>Open-pit, underground</t>
   </si>
   <si>
+    <t>Underground</t>
+  </si>
+  <si>
     <t>Open-pit</t>
   </si>
   <si>
-    <t>Underground</t>
-  </si>
-  <si>
     <t>Concentrator</t>
   </si>
   <si>
+    <t>Base metals</t>
+  </si>
+  <si>
     <t>Precious metals</t>
   </si>
   <si>
     <t>Base metals and precious metals</t>
   </si>
   <si>
-    <t>Base metals</t>
+    <t>Copper, gold, silver</t>
+  </si>
+  <si>
+    <t>Copper, molybdenum, silver</t>
+  </si>
+  <si>
+    <t>Gold, silver</t>
+  </si>
+  <si>
+    <t>Gold, copper, silver</t>
   </si>
   <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>Copper, gold, silver</t>
-  </si>
-  <si>
-    <t>Gold, silver</t>
-  </si>
-  <si>
     <t>Platinum group metals, gold, nickel, copper, cobalt</t>
   </si>
   <si>
-    <t>Gold, copper, silver</t>
-  </si>
-  <si>
-    <t>Copper, molybdenum, silver</t>
+    <t>Hudbay Minerals Inc (100%)</t>
+  </si>
+  <si>
+    <t>Taseko Mines Limited (100%)</t>
+  </si>
+  <si>
+    <t>Newmount Corporation (70%), Imperial Metals Corp (30%)</t>
+  </si>
+  <si>
+    <t>Orla Mining Ltd (100%)</t>
+  </si>
+  <si>
+    <t>New Gold Inc (100%)</t>
+  </si>
+  <si>
+    <t>Centerra Gold Inc (100%)</t>
+  </si>
+  <si>
+    <t>Discovery Silver Corp (100%)</t>
+  </si>
+  <si>
+    <t>Dhilmar Ltd (100%)</t>
   </si>
   <si>
     <t>Alamos Gold Inc (100%)</t>
   </si>
   <si>
-    <t>Centerra Gold Inc (100%)</t>
+    <t>Newmount Corporation (100%)</t>
+  </si>
+  <si>
+    <t>Implats (100%)</t>
+  </si>
+  <si>
+    <t>Pan American Silver Corp (100%)</t>
+  </si>
+  <si>
+    <t>Wesdome Gold Mines Ltd (100%)</t>
+  </si>
+  <si>
+    <t>IAMGOLD Corporation (100%)</t>
   </si>
   <si>
     <t>Eldorado Gold (100%)</t>
   </si>
   <si>
-    <t>Hudbay Minerals Inc (100%)</t>
-  </si>
-  <si>
-    <t>IAMGOLD Corporation (100%)</t>
-  </si>
-  <si>
-    <t>Implats (100%)</t>
-  </si>
-  <si>
-    <t>New Gold Inc (100%)</t>
-  </si>
-  <si>
-    <t>Discovery Silver Corp (100%)</t>
-  </si>
-  <si>
-    <t>Newmount Corporation (70%), Imperial Metals Corp (30%)</t>
-  </si>
-  <si>
-    <t>Newmount Corporation (100%)</t>
-  </si>
-  <si>
-    <t>Dhilmar Ltd (100%)</t>
-  </si>
-  <si>
-    <t>Orla Mining Ltd (100%)</t>
-  </si>
-  <si>
-    <t>Pan American Silver Corp (100%)</t>
-  </si>
-  <si>
     <t>SSR Mining Inc (100%)</t>
   </si>
   <si>
-    <t>Taseko Mines Limited (100%)</t>
-  </si>
-  <si>
-    <t>Wesdome Gold Mines Ltd (100%)</t>
+    <t>Copper Mountain Mine Ltd</t>
   </si>
   <si>
     <t>Thompson Creek Metals Company Inc</t>
   </si>
   <si>
-    <t>Copper Mountain Mine Ltd</t>
+    <t>1884–1958; 2011–open</t>
+  </si>
+  <si>
+    <t>1972–1998; 2004–open</t>
+  </si>
+  <si>
+    <t>2017–open</t>
+  </si>
+  <si>
+    <t>2015–open</t>
+  </si>
+  <si>
+    <t>2012–open</t>
+  </si>
+  <si>
+    <t>2014–open</t>
+  </si>
+  <si>
+    <t>2019–open</t>
   </si>
   <si>
     <t>2007–open</t>
@@ -499,79 +510,79 @@
     <t>1917–1957; 2010–open</t>
   </si>
   <si>
-    <t>2014–open</t>
-  </si>
-  <si>
-    <t>1884–1958; 2011–open</t>
-  </si>
-  <si>
-    <t>2012–open</t>
-  </si>
-  <si>
-    <t>2017–open</t>
-  </si>
-  <si>
-    <t>2019–open</t>
+    <t>1987–1994; 2012–open</t>
+  </si>
+  <si>
+    <t>2002–open</t>
+  </si>
+  <si>
+    <t>2011–open</t>
   </si>
   <si>
     <t>1997–open</t>
   </si>
   <si>
-    <t>2015–open</t>
-  </si>
-  <si>
-    <t>1987–1994; 2012–open</t>
-  </si>
-  <si>
-    <t>2011–open</t>
-  </si>
-  <si>
-    <t>1972–1998; 2004–open</t>
-  </si>
-  <si>
     <t>1936–1996; 2005–2013; 2021–open</t>
   </si>
   <si>
-    <t>2002–open</t>
+    <t>https://hudbayminerals.com/canada/default.aspx</t>
+  </si>
+  <si>
+    <t>https://www.tasekomines.com/</t>
+  </si>
+  <si>
+    <t>https://www.newmont.com/home/default.aspx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>https://newgold.com/home/default.aspx</t>
+  </si>
+  <si>
+    <t>https://www.centerragold.com/</t>
   </si>
   <si>
     <t>https://alamosgold.com</t>
   </si>
   <si>
-    <t>https://www.centerragold.com/</t>
+    <t>https://www.nap.com/home/default.aspx</t>
+  </si>
+  <si>
+    <t>https://panamericansilver.com/</t>
+  </si>
+  <si>
+    <t>https://www.wesdome.com/English/overview/default.aspx</t>
+  </si>
+  <si>
+    <t>https://www.iamgold.com/English/home/default.aspx</t>
   </si>
   <si>
     <t>https://www.eldoradogold.com/</t>
   </si>
   <si>
-    <t>https://hudbayminerals.com/canada/default.aspx</t>
-  </si>
-  <si>
-    <t>https://www.iamgold.com/English/home/default.aspx</t>
-  </si>
-  <si>
-    <t>https://www.nap.com/home/default.aspx</t>
-  </si>
-  <si>
-    <t>https://newgold.com/home/default.aspx</t>
-  </si>
-  <si>
-    <t>https://www.newmont.com/home/default.aspx</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>https://panamericansilver.com/</t>
-  </si>
-  <si>
     <t>https://www.ssrmining.com</t>
   </si>
   <si>
-    <t>https://www.tasekomines.com/</t>
-  </si>
-  <si>
-    <t>https://www.wesdome.com/English/overview/default.aspx</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.tasekomines.com/properties/gibraltar-mine/</t>
+  </si>
+  <si>
+    <t>https://operations.newmont.com/north-america/red-chris-canada</t>
+  </si>
+  <si>
+    <t>https://newgold.com/assets/#new-afton-mine</t>
+  </si>
+  <si>
+    <t>https://www.centerragold.com/operations/mount-milligan/</t>
+  </si>
+  <si>
+    <t>https://newgold.com/assets/#rainy-river-mine</t>
+  </si>
+  <si>
+    <t>https://operations.newmont.com/north-america/porcupine-canada</t>
   </si>
   <si>
     <t>https://www.alamosgold.com/operations/producing-mines/young-davidson-canada/default.aspx</t>
@@ -580,46 +591,52 @@
     <t>https://www.alamosgold.com/operations/producing-mines/island-gold-canada/default.aspx</t>
   </si>
   <si>
-    <t>https://www.centerragold.com/operations/mount-milligan/</t>
+    <t>https://www.nap.com/operations/default.aspx#operations</t>
+  </si>
+  <si>
+    <t>https://panamericansilver.com/operations-2/gold-segment/timmins/</t>
+  </si>
+  <si>
+    <t>https://www.wesdome.com/English/operations/kiena/default.aspx</t>
+  </si>
+  <si>
+    <t>https://www.iamgold.com/English/operations/westwood/default.aspx</t>
+  </si>
+  <si>
+    <t>https://www.wesdome.com/English/operations/eagle-river/default.aspx</t>
   </si>
   <si>
     <t>https://www.eldoradogold.com/assets/operations/lamaque-complex</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>https://www.iamgold.com/English/operations/westwood/default.aspx</t>
-  </si>
-  <si>
-    <t>https://www.nap.com/operations/default.aspx#operations</t>
-  </si>
-  <si>
-    <t>https://newgold.com/assets/#new-afton-mine</t>
-  </si>
-  <si>
-    <t>https://newgold.com/assets/#rainy-river-mine</t>
-  </si>
-  <si>
-    <t>https://operations.newmont.com/north-america/porcupine-canada</t>
-  </si>
-  <si>
-    <t>https://operations.newmont.com/north-america/red-chris-canada</t>
-  </si>
-  <si>
-    <t>https://panamericansilver.com/operations-2/gold-segment/timmins/</t>
-  </si>
-  <si>
     <t>https://www.ssrmining.com/operations/production/seabee/</t>
   </si>
   <si>
-    <t>https://www.tasekomines.com/properties/gibraltar-mine/</t>
-  </si>
-  <si>
-    <t>https://www.wesdome.com/English/operations/eagle-river/default.aspx</t>
-  </si>
-  <si>
-    <t>https://www.wesdome.com/English/operations/kiena/default.aspx</t>
+    <t>https://miningdataonline.com/property/1/copper-mountain-mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/2/Gibraltar-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/246/Red-Chris-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/63/Musselwhite-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/11/new-afton-mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/59/Mount-Milligan-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/69/Rainy-River-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/66/Porcupine-Operation.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/233/Eleonore-Mine.aspx</t>
   </si>
   <si>
     <t>https://miningdataonline.com/property/1484/young-davidson-mine.aspx</t>
@@ -628,61 +645,46 @@
     <t>https://miningdataonline.com/property/7/Island-Gold-Mine.aspx</t>
   </si>
   <si>
-    <t>https://miningdataonline.com/property/59/Mount-Milligan-Mine.aspx</t>
+    <t>https://miningdataonline.com/property/1439/Hoyle-Pond-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/55/Lac-des-Iles-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/8/Bell-Creek-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/3048/Kiena-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/9/Timmins-West-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/72/Brucejack-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/77/Westwood-Operation.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/1254/Eagle-River-Complex.aspx</t>
   </si>
   <si>
     <t>https://miningdataonline.com/property/1694/Lamaque-Project.aspx</t>
   </si>
   <si>
-    <t>https://miningdataonline.com/property/1/copper-mountain-mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/77/Westwood-Operation.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/55/Lac-des-Iles-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/11/new-afton-mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/69/Rainy-River-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/66/Porcupine-Operation.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/246/Red-Chris-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/1439/Hoyle-Pond-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/233/Eleonore-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/72/Brucejack-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/63/Musselwhite-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/8/Bell-Creek-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/9/Timmins-West-Mine.aspx</t>
-  </si>
-  <si>
     <t>https://miningdataonline.com/property/1524/Seabee-Gold-Operation.aspx</t>
   </si>
   <si>
-    <t>https://miningdataonline.com/property/2/Gibraltar-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/1254/Eagle-River-Complex.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/3048/Kiena-Mine.aspx</t>
+    <t>AB-MAIN-d3a4aba9</t>
+  </si>
+  <si>
+    <t>BC-MAIN-3f490561</t>
+  </si>
+  <si>
+    <t>ON-MAIN-4e0734b5</t>
+  </si>
+  <si>
+    <t>ON-MAIN-7001a391</t>
   </si>
   <si>
     <t>ON-MAIN-8825d90d</t>
@@ -691,16 +693,16 @@
     <t>QC-MAIN-089f3c60</t>
   </si>
   <si>
-    <t>BC-MAIN-3f490561</t>
-  </si>
-  <si>
-    <t>ON-MAIN-7001a391</t>
-  </si>
-  <si>
-    <t>ON-MAIN-4e0734b5</t>
-  </si>
-  <si>
-    <t>AB-MAIN-d3a4aba9</t>
+    <t>The Cobalt Refinery Company Inc.</t>
+  </si>
+  <si>
+    <t>Mount Polley</t>
+  </si>
+  <si>
+    <t>Fox Complex</t>
+  </si>
+  <si>
+    <t>McCreedy West</t>
   </si>
   <si>
     <t>Magino</t>
@@ -709,16 +711,16 @@
     <t>Bloom Lake</t>
   </si>
   <si>
-    <t>Mount Polley</t>
-  </si>
-  <si>
-    <t>McCreedy West</t>
-  </si>
-  <si>
-    <t>Fox Complex</t>
-  </si>
-  <si>
-    <t>The Cobalt Refinery Company Inc.</t>
+    <t>CMP-2ef1f553</t>
+  </si>
+  <si>
+    <t>CMP-0dfcd91e</t>
+  </si>
+  <si>
+    <t>CMP-3ff42329</t>
+  </si>
+  <si>
+    <t>CMP-5f083f16</t>
   </si>
   <si>
     <t>CMP-a6812c47</t>
@@ -727,16 +729,16 @@
     <t>CMP-c08ac7d7</t>
   </si>
   <si>
-    <t>CMP-0dfcd91e</t>
-  </si>
-  <si>
-    <t>CMP-5f083f16</t>
-  </si>
-  <si>
-    <t>CMP-3ff42329</t>
-  </si>
-  <si>
-    <t>CMP-2ef1f553</t>
+    <t>Sherritt International Corporation</t>
+  </si>
+  <si>
+    <t>Imperial Metals Corporation</t>
+  </si>
+  <si>
+    <t>McEwen Mining Inc</t>
+  </si>
+  <si>
+    <t>KGHM</t>
   </si>
   <si>
     <t>Argonaut Gold Inc</t>
@@ -745,30 +747,18 @@
     <t>Champion Iron Ltd</t>
   </si>
   <si>
-    <t>Imperial Metals Corporation</t>
-  </si>
-  <si>
-    <t>KGHM</t>
-  </si>
-  <si>
-    <t>McEwen Mining Inc</t>
-  </si>
-  <si>
-    <t>Sherritt International Corporation</t>
+    <t>northeast of Williams Lake</t>
+  </si>
+  <si>
+    <t>Matheson</t>
+  </si>
+  <si>
+    <t>Sudbury</t>
   </si>
   <si>
     <t>Fermont</t>
   </si>
   <si>
-    <t>northeast of Williams Lake</t>
-  </si>
-  <si>
-    <t>Sudbury</t>
-  </si>
-  <si>
-    <t>Matheson</t>
-  </si>
-  <si>
     <t>Alberta</t>
   </si>
   <si>
@@ -781,28 +771,31 @@
     <t>Iron ore</t>
   </si>
   <si>
+    <t>Nickel, cobalt, copper sulfide, ammonium sulfate</t>
+  </si>
+  <si>
+    <t>Copper, nickel, platinum group metals, gold, silver, cobalt</t>
+  </si>
+  <si>
     <t>Iron</t>
   </si>
   <si>
-    <t>Copper, nickel, platinum group metals, gold, silver, cobalt</t>
-  </si>
-  <si>
-    <t>Nickel, cobalt, copper sulfide, ammonium sulfate</t>
+    <t>Sherritt International Corporation (50%), General Nickel Company S.A (50%) through Moa Joint Venture</t>
+  </si>
+  <si>
+    <t>Imperial Metals Corporation (100%)</t>
+  </si>
+  <si>
+    <t>McEwen Mining Inc (100%)</t>
+  </si>
+  <si>
+    <t>Magna Mining Inc (100%)</t>
   </si>
   <si>
     <t>Champion Iron Ltd (100%)</t>
   </si>
   <si>
-    <t>Imperial Metals Corporation (100%)</t>
-  </si>
-  <si>
-    <t>Magna Mining Inc (100%)</t>
-  </si>
-  <si>
-    <t>McEwen Mining Inc (100%)</t>
-  </si>
-  <si>
-    <t>Sherritt International Corporation (50%), General Nickel Company S.A (50%) through Moa Joint Venture</t>
+    <t>Mount Polley Mining Corp</t>
   </si>
   <si>
     <t>Alamos Gold Inc?</t>
@@ -811,7 +804,16 @@
     <t>Quebec Iron Ore Inc</t>
   </si>
   <si>
-    <t>Mount Polley Mining Corp</t>
+    <t>https://www.sherritt.com/English/Home/default.aspx</t>
+  </si>
+  <si>
+    <t>https://imperialmetals.com/</t>
+  </si>
+  <si>
+    <t>https://mcewenmining.com/</t>
+  </si>
+  <si>
+    <t>https://kghm.com/en</t>
   </si>
   <si>
     <t>https://alamosgold.com/</t>
@@ -820,31 +822,28 @@
     <t>https://www.championiron.com/</t>
   </si>
   <si>
-    <t>https://imperialmetals.com/</t>
-  </si>
-  <si>
-    <t>https://kghm.com/en</t>
-  </si>
-  <si>
-    <t>https://mcewenmining.com/</t>
-  </si>
-  <si>
-    <t>https://www.sherritt.com/English/Home/default.aspx</t>
+    <t>https://sherritt.com/operations/</t>
+  </si>
+  <si>
+    <t>https://www.mountpolley.com/</t>
+  </si>
+  <si>
+    <t>https://mcewenmining.com/operations/black-fox-complex/default.aspx</t>
+  </si>
+  <si>
+    <t>https://magnamining.com/about/mccreedy-west-project/</t>
   </si>
   <si>
     <t>https://www.championiron.com/project/bloom-lake/</t>
   </si>
   <si>
-    <t>https://www.mountpolley.com/</t>
-  </si>
-  <si>
-    <t>https://magnamining.com/about/mccreedy-west-project/</t>
-  </si>
-  <si>
-    <t>https://mcewenmining.com/operations/black-fox-complex/default.aspx</t>
-  </si>
-  <si>
-    <t>https://sherritt.com/operations/</t>
+    <t>https://miningdataonline.com/property/61/Mount-Polley.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/588/Fox-Complex.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/173/McCreedy-West,--Morrison-Levack-Sudbury-Basin-Mine.aspx</t>
   </si>
   <si>
     <t>https://miningdataonline.com/property/1752/Magino-Project.aspx</t>
@@ -853,87 +852,84 @@
     <t>https://miningdataonline.com/property/3027/Bloom-Lake-Mine.aspx</t>
   </si>
   <si>
-    <t>https://miningdataonline.com/property/61/Mount-Polley.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/173/McCreedy-West,--Morrison-Levack-Sudbury-Basin-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/588/Fox-Complex.aspx</t>
+    <t>NL-MAIN-b64bae7a</t>
+  </si>
+  <si>
+    <t>NL-MAIN-dd723db4</t>
   </si>
   <si>
     <t>NU-MAIN-4ea8ac9d</t>
   </si>
   <si>
+    <t>NU-MAIN-730aefe3</t>
+  </si>
+  <si>
+    <t>NU-MAIN-8b0264c9</t>
+  </si>
+  <si>
+    <t>ON-MAIN-6e9be24e</t>
+  </si>
+  <si>
+    <t>ON-MAIN-7f050560</t>
+  </si>
+  <si>
+    <t>ON-MAIN-aeafbb59</t>
+  </si>
+  <si>
+    <t>QC-MAIN-b86f7d07</t>
+  </si>
+  <si>
     <t>QC-MAIN-e7e6a960</t>
   </si>
   <si>
-    <t>ON-MAIN-aeafbb59</t>
-  </si>
-  <si>
-    <t>NU-MAIN-730aefe3</t>
-  </si>
-  <si>
-    <t>NU-MAIN-8b0264c9</t>
-  </si>
-  <si>
-    <t>ON-MAIN-6e9be24e</t>
-  </si>
-  <si>
-    <t>ON-MAIN-7f050560</t>
-  </si>
-  <si>
-    <t>QC-MAIN-b86f7d07</t>
-  </si>
-  <si>
     <t>YT-MAIN-44857446</t>
   </si>
   <si>
-    <t>NL-MAIN-dd723db4</t>
-  </si>
-  <si>
-    <t>NL-MAIN-b64bae7a</t>
+    <t>Scully</t>
+  </si>
+  <si>
+    <t>Carol Lake</t>
   </si>
   <si>
     <t>Amaruq</t>
   </si>
   <si>
+    <t>Meadowbank</t>
+  </si>
+  <si>
+    <t>Meliadine</t>
+  </si>
+  <si>
+    <t>Hemlo (Williams)</t>
+  </si>
+  <si>
+    <t>Red Lake</t>
+  </si>
+  <si>
+    <t>Detour Lake</t>
+  </si>
+  <si>
+    <t>Casa Berardi</t>
+  </si>
+  <si>
     <t>Canadian Malartic</t>
   </si>
   <si>
-    <t>Detour Lake</t>
-  </si>
-  <si>
-    <t>Meadowbank</t>
-  </si>
-  <si>
-    <t>Meliadine</t>
-  </si>
-  <si>
-    <t>Hemlo (Williams)</t>
-  </si>
-  <si>
-    <t>Red Lake</t>
-  </si>
-  <si>
-    <t>Casa Berardi</t>
-  </si>
-  <si>
     <t>Keno Hill Silver District</t>
   </si>
   <si>
-    <t>Carol Lake</t>
-  </si>
-  <si>
-    <t>Scully</t>
-  </si>
-  <si>
     <t>GRP-0a2c0d69</t>
   </si>
   <si>
     <t>Meadowbank complex</t>
   </si>
   <si>
+    <t>CMP-8a99044e</t>
+  </si>
+  <si>
+    <t>CMP-2da4630a</t>
+  </si>
+  <si>
     <t>CMP-6265c407</t>
   </si>
   <si>
@@ -946,10 +942,10 @@
     <t>CMP-7e360a1f</t>
   </si>
   <si>
-    <t>CMP-2da4630a</t>
-  </si>
-  <si>
-    <t>CMP-8a99044e</t>
+    <t>Tacora Resources Inc</t>
+  </si>
+  <si>
+    <t>Iron Ore Company of Canada Inc</t>
   </si>
   <si>
     <t>Agnico Eagle Mines Limited</t>
@@ -964,40 +960,37 @@
     <t>Hecla Mining Company</t>
   </si>
   <si>
-    <t>Iron Ore Company of Canada Inc</t>
-  </si>
-  <si>
-    <t>Tacora Resources Inc</t>
+    <t>Wabush</t>
+  </si>
+  <si>
+    <t>Labrador City</t>
   </si>
   <si>
     <t>Baker Lake</t>
   </si>
   <si>
+    <t>Rankin Inlet</t>
+  </si>
+  <si>
+    <t>Marathon</t>
+  </si>
+  <si>
+    <t>Balmertown</t>
+  </si>
+  <si>
+    <t>Northeast of Cochrane</t>
+  </si>
+  <si>
+    <t>north of La Sarre, Casa Berardi Twp.</t>
+  </si>
+  <si>
     <t>Malartic</t>
   </si>
   <si>
-    <t>Northeast of Cochrane</t>
-  </si>
-  <si>
-    <t>Rankin Inlet</t>
-  </si>
-  <si>
-    <t>Marathon</t>
-  </si>
-  <si>
-    <t>Balmertown</t>
-  </si>
-  <si>
-    <t>north of La Sarre, Casa Berardi Twp.</t>
-  </si>
-  <si>
     <t>Mayo</t>
   </si>
   <si>
-    <t>Labrador City</t>
-  </si>
-  <si>
-    <t>Wabush</t>
+    <t>Newfoundland and Labrador</t>
   </si>
   <si>
     <t>Nunavut</t>
@@ -1006,15 +999,18 @@
     <t>Yukon</t>
   </si>
   <si>
-    <t>Newfoundland and Labrador</t>
-  </si>
-  <si>
     <t>Precious metals and Base metals</t>
   </si>
   <si>
     <t>Silver, zinc, lead</t>
   </si>
   <si>
+    <t>Tacora Resources Inc (100%)</t>
+  </si>
+  <si>
+    <t>Rio Tinto (58.7%), Mitsubishi Corporation (26.2%) and Labrador Iron Ore Royalty Corporation (15.1%)</t>
+  </si>
+  <si>
     <t>Agnico Eagle Mines Limited (100%)</t>
   </si>
   <si>
@@ -1027,28 +1023,28 @@
     <t>Hecla Mining Company (100%)</t>
   </si>
   <si>
-    <t>Rio Tinto (58.7%), Mitsubishi Corporation (26.2%) and Labrador Iron Ore Royalty Corporation (15.1%)</t>
-  </si>
-  <si>
-    <t>Tacora Resources Inc (100%)</t>
-  </si>
-  <si>
     <t>Barrick Gold Corporation</t>
   </si>
   <si>
+    <t>2010–open</t>
+  </si>
+  <si>
+    <t>1949–open</t>
+  </si>
+  <si>
+    <t>1983–open</t>
+  </si>
+  <si>
+    <t>1988–1991; 1993–open</t>
+  </si>
+  <si>
     <t>1935–1965; 2011–open</t>
   </si>
   <si>
-    <t>1983–open</t>
-  </si>
-  <si>
-    <t>2010–open</t>
-  </si>
-  <si>
-    <t>1949–open</t>
-  </si>
-  <si>
-    <t>1988–1991; 1993–open</t>
+    <t>https://tacoraresources.com/</t>
+  </si>
+  <si>
+    <t>https://www.ironore.ca/en</t>
   </si>
   <si>
     <t>https://agnicoeagle.com/Home/default.aspx</t>
@@ -1063,83 +1059,77 @@
     <t>https://www.hecla.com/</t>
   </si>
   <si>
-    <t>https://www.ironore.ca/en</t>
-  </si>
-  <si>
-    <t>https://tacoraresources.com/</t>
+    <t>https://www.gem.wiki/Tacora_Resources_Scully_Mine</t>
+  </si>
+  <si>
+    <t>https://www.riotinto.com/en/operations/canada/iron-ore-company-canada</t>
   </si>
   <si>
     <t>https://www.agnicoeagle.com/English/operations/operations/laronde/default.aspx</t>
   </si>
   <si>
+    <t>https://www.agnicoeagle.com/English/operations/operations/Macassa-Mine/default.aspx</t>
+  </si>
+  <si>
+    <t>https://www.agnicoeagle.com/English/operations/operations/goldex/default.aspx</t>
+  </si>
+  <si>
+    <t>https://www.barrick.com/English/operations/hemlo/default.aspx</t>
+  </si>
+  <si>
+    <t>https://evolutionmining.com.au/red-lake/</t>
+  </si>
+  <si>
+    <t>https://www.agnicoeagle.com/English/operations/operations/meliadine/default.aspx</t>
+  </si>
+  <si>
+    <t>https://www.hecla.com/operations/hecla-keno-hill-yukon-territory-canada</t>
+  </si>
+  <si>
     <t>https://www.agnicoeagle.com/English/operations/operations/Detour-Lake-Mine/default.aspx</t>
   </si>
   <si>
-    <t>https://www.agnicoeagle.com/English/operations/operations/meliadine/default.aspx</t>
-  </si>
-  <si>
-    <t>https://www.agnicoeagle.com/English/operations/operations/Macassa-Mine/default.aspx</t>
-  </si>
-  <si>
-    <t>https://www.agnicoeagle.com/English/operations/operations/goldex/default.aspx</t>
-  </si>
-  <si>
-    <t>https://www.barrick.com/English/operations/hemlo/default.aspx</t>
-  </si>
-  <si>
-    <t>https://evolutionmining.com.au/red-lake/</t>
-  </si>
-  <si>
-    <t>https://www.hecla.com/operations/hecla-keno-hill-yukon-territory-canada</t>
-  </si>
-  <si>
     <t>https://www.hecla.com/operations/casa-berardi-quebec-canada</t>
   </si>
   <si>
-    <t>https://www.riotinto.com/en/operations/canada/iron-ore-company-canada</t>
-  </si>
-  <si>
-    <t>https://www.gem.wiki/Tacora_Resources_Scully_Mine</t>
+    <t>https://miningdataonline.com/property/4651/Scully-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/23/Carol-Lake-Mine.aspx</t>
   </si>
   <si>
     <t>https://miningdataonline.com/property/46/LaRonde-Mine.aspx</t>
   </si>
   <si>
+    <t>https://miningdataonline.com/property/453/Macassa-Complex.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/44/Goldex-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/49/Hemlo-Williams,-David-Bell-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/234/Red-Lake-Operation.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/959/Meliadine-Mine.aspx</t>
+  </si>
+  <si>
+    <t>https://miningdataonline.com/property/4563/Keno-Hill-Operation.aspx</t>
+  </si>
+  <si>
     <t>https://miningdataonline.com/property/13/Detour-Lake-Mine.aspx</t>
   </si>
   <si>
-    <t>https://miningdataonline.com/property/959/Meliadine-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/453/Macassa-Complex.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/44/Goldex-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/49/Hemlo-Williams,-David-Bell-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/234/Red-Lake-Operation.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/4563/Keno-Hill-Operation.aspx</t>
-  </si>
-  <si>
     <t>https://miningdataonline.com/property/24/Casa-Berardi-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/23/Carol-Lake-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/4651/Scully-Mine.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,18 +1153,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1208,14 +1192,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1223,21 +1205,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1275,7 +1249,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1309,7 +1283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1344,10 +1317,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1520,40 +1492,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" activeCellId="4" sqref="A4:XFD4 A6:XFD6 A9:XFD9 A16:XFD16 A21:XFD21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="82.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="63.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1605,7 @@
         <v>137</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="R2" t="s">
         <v>155</v>
@@ -1667,14 +1613,14 @@
       <c r="S2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s">
         <v>182</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1682,10 +1628,10 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -1706,19 +1652,16 @@
         <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="R3" t="s">
         <v>156</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>183</v>
@@ -1727,60 +1670,57 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="O4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1797,7 +1737,7 @@
         <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
         <v>119</v>
@@ -1812,78 +1752,75 @@
         <v>128</v>
       </c>
       <c r="O5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>185</v>
+        <v>140</v>
+      </c>
+      <c r="R5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T5" t="s">
+        <v>172</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" t="s">
         <v>122</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="U6" s="4" t="s">
+      <c r="O6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1900,7 +1837,7 @@
         <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I7" t="s">
         <v>119</v>
@@ -1912,28 +1849,31 @@
         <v>121</v>
       </c>
       <c r="N7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>154</v>
+      </c>
+      <c r="R7" t="s">
+        <v>160</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1941,16 +1881,16 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
         <v>119</v>
@@ -1962,95 +1902,107 @@
         <v>123</v>
       </c>
       <c r="N8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>89</v>
+        <v>141</v>
+      </c>
+      <c r="R8" t="s">
+        <v>157</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" t="s">
         <v>129</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" t="s">
         <v>135</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="U9" s="4" t="s">
+      <c r="R9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
         <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
         <v>119</v>
@@ -2059,54 +2011,42 @@
         <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
-      </c>
-      <c r="R10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
         <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
         <v>119</v>
@@ -2115,31 +2055,34 @@
         <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>89</v>
       </c>
       <c r="R11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2147,10 +2090,10 @@
         <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
         <v>106</v>
@@ -2165,31 +2108,34 @@
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s">
         <v>145</v>
       </c>
+      <c r="Q12" t="s">
+        <v>89</v>
+      </c>
       <c r="R12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2203,16 +2149,16 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
         <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
         <v>119</v>
@@ -2221,51 +2167,45 @@
         <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s">
         <v>146</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
         <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
         <v>119</v>
@@ -2274,31 +2214,43 @@
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P14" t="s">
         <v>147</v>
       </c>
+      <c r="Q14" t="s">
+        <v>90</v>
+      </c>
       <c r="S14" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="T14" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="U14" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
       <c r="E15" t="s">
         <v>79</v>
       </c>
@@ -2306,10 +2258,10 @@
         <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
         <v>119</v>
@@ -2318,78 +2270,81 @@
         <v>120</v>
       </c>
       <c r="M15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" t="s">
         <v>135</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="U16" s="4" t="s">
+      <c r="P16" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" t="s">
+        <v>165</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2403,16 +2358,16 @@
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
         <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
         <v>119</v>
@@ -2421,54 +2376,48 @@
         <v>120</v>
       </c>
       <c r="M17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
         <v>119</v>
@@ -2477,43 +2426,34 @@
         <v>120</v>
       </c>
       <c r="M18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" t="s">
         <v>81</v>
       </c>
@@ -2524,7 +2464,7 @@
         <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
         <v>119</v>
@@ -2533,19 +2473,19 @@
         <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P19" t="s">
         <v>150</v>
       </c>
-      <c r="R19" t="s">
-        <v>165</v>
+      <c r="Q19" t="s">
+        <v>93</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>179</v>
@@ -2557,30 +2497,24 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
         <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
         <v>119</v>
@@ -2589,84 +2523,93 @@
         <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="R20" t="s">
+        <v>168</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="N21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" t="s">
         <v>151</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S21" s="4" t="s">
+      <c r="Q21" t="s">
+        <v>94</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="T21" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
@@ -2674,10 +2617,10 @@
         <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
         <v>119</v>
@@ -2686,37 +2629,43 @@
         <v>120</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P22" t="s">
         <v>152</v>
       </c>
       <c r="R22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>181</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
@@ -2727,7 +2676,7 @@
         <v>114</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
         <v>119</v>
@@ -2736,20 +2685,17 @@
         <v>120</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P23" t="s">
         <v>152</v>
       </c>
-      <c r="R23" t="s">
-        <v>168</v>
-      </c>
       <c r="S23" s="2" t="s">
         <v>181</v>
       </c>
@@ -2761,92 +2707,82 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="S3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="T3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="U3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="T4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="U4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="S5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="T5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="U5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="S6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="U6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="S7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="T7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="U7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="S8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="T8" r:id="rId19" location="operations" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="U8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="S9" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="T9" r:id="rId22" location="new-afton-mine" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="U9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="S10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="T10" r:id="rId25" location="rainy-river-mine" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="U10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="S11" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="T11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="U11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="S12" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="T12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="U12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="S13" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="T13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="U13" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="S14" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="U14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="S15" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="U15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="U16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="S17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="T17" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="U17" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="S18" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="T18" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="U18" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="S19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="T19" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="U19" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="S20" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="T20" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="U20" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="S21" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="T21" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="U21" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="S22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T22" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="U22" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="S23" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T23" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="U23" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="U2" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="T3" r:id="rId4"/>
+    <hyperlink ref="U3" r:id="rId5"/>
+    <hyperlink ref="S4" r:id="rId6"/>
+    <hyperlink ref="T4" r:id="rId7"/>
+    <hyperlink ref="U4" r:id="rId8"/>
+    <hyperlink ref="U5" r:id="rId9"/>
+    <hyperlink ref="S6" r:id="rId10"/>
+    <hyperlink ref="T6" r:id="rId11" location="new-afton-mine"/>
+    <hyperlink ref="U6" r:id="rId12"/>
+    <hyperlink ref="S7" r:id="rId13"/>
+    <hyperlink ref="T7" r:id="rId14"/>
+    <hyperlink ref="U7" r:id="rId15"/>
+    <hyperlink ref="S8" r:id="rId16"/>
+    <hyperlink ref="T8" r:id="rId17" location="rainy-river-mine"/>
+    <hyperlink ref="U8" r:id="rId18"/>
+    <hyperlink ref="S9" r:id="rId19"/>
+    <hyperlink ref="T9" r:id="rId20"/>
+    <hyperlink ref="U9" r:id="rId21"/>
+    <hyperlink ref="S10" r:id="rId22"/>
+    <hyperlink ref="U10" r:id="rId23"/>
+    <hyperlink ref="S11" r:id="rId24"/>
+    <hyperlink ref="T11" r:id="rId25"/>
+    <hyperlink ref="U11" r:id="rId26"/>
+    <hyperlink ref="S12" r:id="rId27"/>
+    <hyperlink ref="T12" r:id="rId28"/>
+    <hyperlink ref="U12" r:id="rId29"/>
+    <hyperlink ref="S13" r:id="rId30"/>
+    <hyperlink ref="T13" r:id="rId31"/>
+    <hyperlink ref="U13" r:id="rId32"/>
+    <hyperlink ref="S14" r:id="rId33"/>
+    <hyperlink ref="T14" r:id="rId34" location="operations"/>
+    <hyperlink ref="U14" r:id="rId35"/>
+    <hyperlink ref="S15" r:id="rId36"/>
+    <hyperlink ref="T15" r:id="rId37"/>
+    <hyperlink ref="U15" r:id="rId38"/>
+    <hyperlink ref="S16" r:id="rId39"/>
+    <hyperlink ref="T16" r:id="rId40"/>
+    <hyperlink ref="U16" r:id="rId41"/>
+    <hyperlink ref="S17" r:id="rId42"/>
+    <hyperlink ref="T17" r:id="rId43"/>
+    <hyperlink ref="U17" r:id="rId44"/>
+    <hyperlink ref="S18" r:id="rId45"/>
+    <hyperlink ref="U18" r:id="rId46"/>
+    <hyperlink ref="S19" r:id="rId47"/>
+    <hyperlink ref="T19" r:id="rId48"/>
+    <hyperlink ref="U19" r:id="rId49"/>
+    <hyperlink ref="S20" r:id="rId50"/>
+    <hyperlink ref="T20" r:id="rId51"/>
+    <hyperlink ref="U20" r:id="rId52"/>
+    <hyperlink ref="S21" r:id="rId53"/>
+    <hyperlink ref="T21" r:id="rId54"/>
+    <hyperlink ref="U21" r:id="rId55"/>
+    <hyperlink ref="S22" r:id="rId56"/>
+    <hyperlink ref="T22" r:id="rId57"/>
+    <hyperlink ref="U22" r:id="rId58"/>
+    <hyperlink ref="S23" r:id="rId59"/>
+    <hyperlink ref="T23" r:id="rId60"/>
+    <hyperlink ref="U23" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2914,18 +2850,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
         <v>247</v>
@@ -2940,42 +2876,42 @@
         <v>249</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="U2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
         <v>119</v>
@@ -2984,48 +2920,48 @@
         <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P3" t="s">
         <v>255</v>
       </c>
       <c r="Q3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>269</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
         <v>119</v>
@@ -3034,151 +2970,151 @@
         <v>120</v>
       </c>
       <c r="M4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T4" t="s">
+        <v>182</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" t="s">
+        <v>156</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" t="s">
         <v>122</v>
       </c>
-      <c r="N4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R4" t="s">
-        <v>158</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="T4" t="s">
-        <v>186</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" t="s">
-        <v>136</v>
-      </c>
-      <c r="P5" t="s">
-        <v>151</v>
-      </c>
-      <c r="R5" t="s">
-        <v>166</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" t="s">
-        <v>121</v>
-      </c>
       <c r="N6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O6" t="s">
         <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" t="s">
         <v>119</v>
@@ -3187,151 +3123,151 @@
         <v>120</v>
       </c>
       <c r="M7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S7" t="s">
+        <v>172</v>
+      </c>
+      <c r="T7" t="s">
+        <v>172</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" t="s">
         <v>122</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N8" t="s">
         <v>130</v>
       </c>
-      <c r="O7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P7" t="s">
-        <v>148</v>
-      </c>
-      <c r="R7" t="s">
-        <v>163</v>
-      </c>
-      <c r="S7" t="s">
-        <v>177</v>
-      </c>
-      <c r="T7" t="s">
-        <v>177</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" t="s">
-        <v>120</v>
-      </c>
-      <c r="M8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" t="s">
-        <v>129</v>
-      </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R8" t="s">
         <v>159</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" t="s">
+        <v>160</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
         <v>116</v>
-      </c>
-      <c r="I9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" t="s">
-        <v>129</v>
-      </c>
-      <c r="O9" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>153</v>
-      </c>
-      <c r="R9" t="s">
-        <v>157</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>119</v>
@@ -3343,33 +3279,33 @@
         <v>123</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
         <v>133</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -3378,16 +3314,16 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
         <v>119</v>
@@ -3399,45 +3335,45 @@
         <v>124</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R11" t="s">
         <v>161</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
         <v>119</v>
@@ -3449,30 +3385,30 @@
         <v>123</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -3481,16 +3417,16 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
         <v>119</v>
@@ -3499,42 +3435,42 @@
         <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
         <v>119</v>
@@ -3543,34 +3479,34 @@
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="R14" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -3587,7 +3523,7 @@
         <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
         <v>119</v>
@@ -3596,45 +3532,45 @@
         <v>120</v>
       </c>
       <c r="M15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
         <v>252</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>265</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
         <v>119</v>
@@ -3643,34 +3579,34 @@
         <v>120</v>
       </c>
       <c r="M16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="R16" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3684,16 +3620,16 @@
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
         <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
         <v>119</v>
@@ -3702,45 +3638,45 @@
         <v>120</v>
       </c>
       <c r="M17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
         <v>146</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G18" t="s">
         <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
         <v>119</v>
@@ -3749,45 +3685,45 @@
         <v>120</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O18" t="s">
         <v>133</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
         <v>119</v>
@@ -3799,33 +3735,33 @@
         <v>123</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
@@ -3834,16 +3770,16 @@
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
         <v>119</v>
@@ -3852,86 +3788,86 @@
         <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R20" t="s">
         <v>164</v>
       </c>
       <c r="S20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" t="s">
+        <v>149</v>
+      </c>
+      <c r="R21" t="s">
+        <v>165</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" t="s">
-        <v>125</v>
-      </c>
-      <c r="N21" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" t="s">
-        <v>131</v>
-      </c>
-      <c r="P21" t="s">
-        <v>152</v>
-      </c>
-      <c r="R21" t="s">
-        <v>168</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="U21" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
@@ -3940,16 +3876,16 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
         <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s">
         <v>119</v>
@@ -3958,48 +3894,48 @@
         <v>120</v>
       </c>
       <c r="M22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
         <v>119</v>
@@ -4008,10 +3944,10 @@
         <v>120</v>
       </c>
       <c r="M23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
         <v>133</v>
@@ -4020,30 +3956,30 @@
         <v>146</v>
       </c>
       <c r="R23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
         <v>117</v>
@@ -4055,45 +3991,45 @@
         <v>120</v>
       </c>
       <c r="M24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
         <v>133</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H25" t="s">
         <v>117</v>
@@ -4105,45 +4041,45 @@
         <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N25" t="s">
         <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H26" t="s">
         <v>117</v>
@@ -4155,45 +4091,45 @@
         <v>120</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
         <v>117</v>
@@ -4205,36 +4141,36 @@
         <v>120</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4243,13 +4179,13 @@
         <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
         <v>118</v>
@@ -4261,36 +4197,36 @@
         <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4299,13 +4235,13 @@
         <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
         <v>118</v>
@@ -4320,149 +4256,117 @@
         <v>127</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V29">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="S14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="T14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="U14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="S16" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="T16" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="U16" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="S18" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="U18" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="S9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="T9" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="U9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="S25" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="T25" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="U25" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="S27" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="T27" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="U27" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="S4" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="U4" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="S24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="T24" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="U24" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="S19" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="T19" r:id="rId24" location="operations" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="U19" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="S3" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="T3" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="U3" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="S15" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="T15" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="U15" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="S12" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="T12" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="U12" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="S8" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="T8" r:id="rId36" location="new-afton-mine" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="U8" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="S10" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="T10" r:id="rId39" location="rainy-river-mine" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="U10" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="S11" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="T11" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="U11" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="S6" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="T6" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="U6" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="S17" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="T17" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="U17" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="S13" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="U13" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="S23" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="U23" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="U7" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="S20" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="T20" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="U20" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="S22" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="T22" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="U22" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="S2" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="T2" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="S28" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="T28" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="U28" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="S29" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="T29" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="U29" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="S5" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="T5" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="U5" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="S26" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="T26" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="U26" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="S21" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="T21" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="U21" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="T3" r:id="rId4"/>
+    <hyperlink ref="U3" r:id="rId5"/>
+    <hyperlink ref="S4" r:id="rId6"/>
+    <hyperlink ref="U4" r:id="rId7"/>
+    <hyperlink ref="S5" r:id="rId8"/>
+    <hyperlink ref="T5" r:id="rId9"/>
+    <hyperlink ref="U5" r:id="rId10"/>
+    <hyperlink ref="S6" r:id="rId11"/>
+    <hyperlink ref="T6" r:id="rId12"/>
+    <hyperlink ref="U6" r:id="rId13"/>
+    <hyperlink ref="U7" r:id="rId14"/>
+    <hyperlink ref="S8" r:id="rId15"/>
+    <hyperlink ref="T8" r:id="rId16" location="new-afton-mine"/>
+    <hyperlink ref="U8" r:id="rId17"/>
+    <hyperlink ref="S9" r:id="rId18"/>
+    <hyperlink ref="T9" r:id="rId19"/>
+    <hyperlink ref="U9" r:id="rId20"/>
+    <hyperlink ref="S10" r:id="rId21"/>
+    <hyperlink ref="T10" r:id="rId22" location="rainy-river-mine"/>
+    <hyperlink ref="U10" r:id="rId23"/>
+    <hyperlink ref="S11" r:id="rId24"/>
+    <hyperlink ref="T11" r:id="rId25"/>
+    <hyperlink ref="U11" r:id="rId26"/>
+    <hyperlink ref="S12" r:id="rId27"/>
+    <hyperlink ref="T12" r:id="rId28"/>
+    <hyperlink ref="U12" r:id="rId29"/>
+    <hyperlink ref="S13" r:id="rId30"/>
+    <hyperlink ref="U13" r:id="rId31"/>
+    <hyperlink ref="S14" r:id="rId32"/>
+    <hyperlink ref="T14" r:id="rId33"/>
+    <hyperlink ref="U14" r:id="rId34"/>
+    <hyperlink ref="S15" r:id="rId35"/>
+    <hyperlink ref="T15" r:id="rId36"/>
+    <hyperlink ref="U15" r:id="rId37"/>
+    <hyperlink ref="S16" r:id="rId38"/>
+    <hyperlink ref="T16" r:id="rId39"/>
+    <hyperlink ref="U16" r:id="rId40"/>
+    <hyperlink ref="S17" r:id="rId41"/>
+    <hyperlink ref="T17" r:id="rId42"/>
+    <hyperlink ref="U17" r:id="rId43"/>
+    <hyperlink ref="S18" r:id="rId44"/>
+    <hyperlink ref="U18" r:id="rId45"/>
+    <hyperlink ref="S19" r:id="rId46"/>
+    <hyperlink ref="T19" r:id="rId47" location="operations"/>
+    <hyperlink ref="U19" r:id="rId48"/>
+    <hyperlink ref="S20" r:id="rId49"/>
+    <hyperlink ref="T20" r:id="rId50"/>
+    <hyperlink ref="U20" r:id="rId51"/>
+    <hyperlink ref="S21" r:id="rId52"/>
+    <hyperlink ref="T21" r:id="rId53"/>
+    <hyperlink ref="U21" r:id="rId54"/>
+    <hyperlink ref="S22" r:id="rId55"/>
+    <hyperlink ref="T22" r:id="rId56"/>
+    <hyperlink ref="U22" r:id="rId57"/>
+    <hyperlink ref="S23" r:id="rId58"/>
+    <hyperlink ref="U23" r:id="rId59"/>
+    <hyperlink ref="S24" r:id="rId60"/>
+    <hyperlink ref="T24" r:id="rId61"/>
+    <hyperlink ref="U24" r:id="rId62"/>
+    <hyperlink ref="S25" r:id="rId63"/>
+    <hyperlink ref="T25" r:id="rId64"/>
+    <hyperlink ref="U25" r:id="rId65"/>
+    <hyperlink ref="S26" r:id="rId66"/>
+    <hyperlink ref="T26" r:id="rId67"/>
+    <hyperlink ref="U26" r:id="rId68"/>
+    <hyperlink ref="S27" r:id="rId69"/>
+    <hyperlink ref="T27" r:id="rId70"/>
+    <hyperlink ref="U27" r:id="rId71"/>
+    <hyperlink ref="S28" r:id="rId72"/>
+    <hyperlink ref="T28" r:id="rId73"/>
+    <hyperlink ref="U28" r:id="rId74"/>
+    <hyperlink ref="S29" r:id="rId75"/>
+    <hyperlink ref="T29" r:id="rId76"/>
+    <hyperlink ref="U29" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="84.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="82.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4530,30 +4434,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
         <v>119</v>
@@ -4562,7 +4460,7 @@
         <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
         <v>128</v>
@@ -4571,42 +4469,42 @@
         <v>131</v>
       </c>
       <c r="P2" t="s">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="Q2" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="R2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>347</v>
+        <v>169</v>
+      </c>
+      <c r="T2" t="s">
+        <v>182</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
         <v>119</v>
@@ -4615,48 +4513,45 @@
         <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
         <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>308</v>
+        <v>138</v>
       </c>
       <c r="R3" t="s">
-        <v>336</v>
+        <v>156</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>115</v>
@@ -4671,54 +4566,45 @@
         <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="R4" t="s">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>341</v>
+        <v>171</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" t="s">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
         <v>119</v>
@@ -4727,51 +4613,48 @@
         <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N5" t="s">
         <v>128</v>
       </c>
       <c r="O5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P5" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="R5" t="s">
-        <v>338</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>350</v>
+        <v>158</v>
+      </c>
+      <c r="S5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T5" t="s">
+        <v>172</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
         <v>119</v>
@@ -4780,48 +4663,45 @@
         <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>308</v>
+        <v>141</v>
       </c>
       <c r="R6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>351</v>
+        <v>185</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
         <v>115</v>
@@ -4836,48 +4716,48 @@
         <v>121</v>
       </c>
       <c r="N7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O7" t="s">
         <v>131</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="R7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>119</v>
@@ -4889,36 +4769,30 @@
         <v>121</v>
       </c>
       <c r="N8" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="O8" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>183</v>
+        <v>347</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
         <v>303</v>
@@ -4927,10 +4801,10 @@
         <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
       <c r="I9" t="s">
         <v>119</v>
@@ -4939,48 +4813,51 @@
         <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="O9" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="P9" t="s">
         <v>330</v>
       </c>
-      <c r="Q9" t="s">
-        <v>335</v>
-      </c>
       <c r="S9" s="2" t="s">
         <v>342</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>291</v>
+      </c>
+      <c r="C10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" t="s">
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
         <v>119</v>
@@ -4989,51 +4866,57 @@
         <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
         <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="Q10" t="s">
-        <v>153</v>
+        <v>310</v>
       </c>
       <c r="R10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>170</v>
+        <v>343</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>301</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
         <v>119</v>
@@ -5042,36 +4925,39 @@
         <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>310</v>
+      </c>
+      <c r="R11" t="s">
+        <v>336</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E12" t="s">
         <v>304</v>
@@ -5080,10 +4966,10 @@
         <v>310</v>
       </c>
       <c r="G12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
         <v>119</v>
@@ -5092,51 +4978,51 @@
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s">
         <v>331</v>
       </c>
       <c r="Q12" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="R12" t="s">
-        <v>339</v>
+        <v>161</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>343</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
         <v>119</v>
@@ -5148,48 +5034,51 @@
         <v>123</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
         <v>133</v>
       </c>
       <c r="P13" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="R13" t="s">
-        <v>340</v>
+        <v>157</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>344</v>
+        <v>173</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>354</v>
+        <v>187</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
         <v>119</v>
@@ -5198,45 +5087,51 @@
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>311</v>
+        <v>143</v>
+      </c>
+      <c r="R14" t="s">
+        <v>161</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
         <v>116</v>
@@ -5248,101 +5143,95 @@
         <v>120</v>
       </c>
       <c r="M15" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" t="s">
+        <v>144</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" t="s">
         <v>122</v>
       </c>
-      <c r="N15" t="s">
-        <v>130</v>
-      </c>
-      <c r="O15" t="s">
-        <v>132</v>
-      </c>
-      <c r="P15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>154</v>
-      </c>
-      <c r="R15" t="s">
-        <v>158</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="T15" t="s">
-        <v>186</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" t="s">
-        <v>121</v>
-      </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R16" t="s">
+        <v>162</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>318</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
         <v>119</v>
@@ -5354,45 +5243,45 @@
         <v>123</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="Q17" t="s">
+        <v>335</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>287</v>
-      </c>
-      <c r="B18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E18" t="s">
-        <v>306</v>
-      </c>
-      <c r="F18" t="s">
-        <v>312</v>
-      </c>
       <c r="G18" t="s">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>326</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
         <v>119</v>
@@ -5404,39 +5293,45 @@
         <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="O18" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="P18" t="s">
-        <v>333</v>
+        <v>145</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" t="s">
+        <v>163</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>356</v>
+        <v>190</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="H19" t="s">
         <v>116</v>
@@ -5448,125 +5343,125 @@
         <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N19" t="s">
         <v>129</v>
       </c>
       <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>94</v>
+      </c>
+      <c r="R19" t="s">
+        <v>337</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" t="s">
         <v>135</v>
       </c>
-      <c r="P19" t="s">
-        <v>143</v>
-      </c>
-      <c r="R19" t="s">
-        <v>159</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="P20" t="s">
+        <v>146</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
         <v>78</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>90</v>
       </c>
-      <c r="G20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" t="s">
         <v>123</v>
       </c>
-      <c r="N20" t="s">
-        <v>128</v>
-      </c>
-      <c r="O20" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" t="s">
-        <v>143</v>
-      </c>
-      <c r="R20" t="s">
-        <v>160</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" t="s">
-        <v>124</v>
-      </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
-      </c>
-      <c r="R21" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>90</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>176</v>
@@ -5575,24 +5470,24 @@
         <v>191</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="H22" t="s">
         <v>116</v>
@@ -5607,39 +5502,42 @@
         <v>121</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>331</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>310</v>
       </c>
       <c r="R22" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
         <v>79</v>
@@ -5651,7 +5549,7 @@
         <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
         <v>119</v>
@@ -5660,51 +5558,48 @@
         <v>120</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="R23" t="s">
+        <v>164</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
         <v>119</v>
@@ -5716,27 +5611,39 @@
         <v>126</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="R24" t="s">
+        <v>165</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -5745,10 +5652,10 @@
         <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
         <v>119</v>
@@ -5757,39 +5664,42 @@
         <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
         <v>110</v>
@@ -5807,51 +5717,42 @@
         <v>122</v>
       </c>
       <c r="N26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R26" t="s">
-        <v>163</v>
-      </c>
-      <c r="S26" t="s">
-        <v>177</v>
-      </c>
-      <c r="T26" t="s">
-        <v>177</v>
+        <v>167</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I27" t="s">
         <v>119</v>
@@ -5860,42 +5761,36 @@
         <v>120</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R27" t="s">
-        <v>164</v>
+        <v>150</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>93</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>80</v>
@@ -5904,10 +5799,10 @@
         <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I28" t="s">
         <v>119</v>
@@ -5916,54 +5811,48 @@
         <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P28" t="s">
         <v>149</v>
       </c>
       <c r="R28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>178</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
         <v>119</v>
@@ -5972,101 +5861,104 @@
         <v>120</v>
       </c>
       <c r="M29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>334</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>313</v>
       </c>
       <c r="R29" t="s">
-        <v>165</v>
+        <v>339</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="G30" t="s">
+        <v>322</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" t="s">
+        <v>129</v>
+      </c>
+      <c r="O30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>310</v>
+      </c>
+      <c r="R30" t="s">
+        <v>340</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
         <v>112</v>
       </c>
-      <c r="H30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" t="s">
-        <v>119</v>
-      </c>
-      <c r="L30" t="s">
-        <v>120</v>
-      </c>
-      <c r="M30" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" t="s">
-        <v>128</v>
-      </c>
-      <c r="O30" t="s">
-        <v>131</v>
-      </c>
-      <c r="P30" t="s">
-        <v>150</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>288</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="E31" t="s">
-        <v>307</v>
-      </c>
-      <c r="F31" t="s">
-        <v>313</v>
-      </c>
-      <c r="G31" t="s">
-        <v>323</v>
-      </c>
       <c r="H31" t="s">
-        <v>326</v>
+        <v>117</v>
       </c>
       <c r="I31" t="s">
         <v>119</v>
@@ -6078,42 +5970,51 @@
         <v>122</v>
       </c>
       <c r="N31" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="O31" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="P31" t="s">
-        <v>334</v>
+        <v>151</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>94</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>346</v>
+        <v>180</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>357</v>
+        <v>196</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
         <v>119</v>
@@ -6122,36 +6023,42 @@
         <v>120</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R32" t="s">
         <v>166</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>83</v>
@@ -6160,10 +6067,10 @@
         <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I33" t="s">
         <v>119</v>
@@ -6172,48 +6079,45 @@
         <v>120</v>
       </c>
       <c r="M33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O33" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P33" t="s">
         <v>152</v>
       </c>
-      <c r="R33" t="s">
-        <v>167</v>
-      </c>
       <c r="S33" s="2" t="s">
         <v>181</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>323</v>
       </c>
       <c r="H34" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c r="I34" t="s">
         <v>119</v>
@@ -6222,126 +6126,126 @@
         <v>120</v>
       </c>
       <c r="M34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N34" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
-      </c>
-      <c r="R34" t="s">
-        <v>168</v>
+        <v>334</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>313</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>218</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="U2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="S3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="T3" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="U3" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="S4" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="T4" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="U4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="S5" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="T5" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="U5" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="S6" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="T6" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="U6" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="S7" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="T7" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="U7" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="S8" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="T8" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="U8" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="S9" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="T9" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="U9" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="S10" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="T10" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="U10" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="S11" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="T11" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="U11" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="S12" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="T12" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="U12" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="S13" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="T13" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="U13" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="S14" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="T14" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="U14" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="S15" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="U15" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="S16" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="T16" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="U16" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="S17" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="T17" r:id="rId46" location="operations" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="U17" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="S18" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="T18" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="U18" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="S19" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="T19" r:id="rId52" location="new-afton-mine" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="U19" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="S20" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="T20" r:id="rId55" location="rainy-river-mine" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="U20" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="S21" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="T21" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="U21" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="S22" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="T22" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="U22" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="S23" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="T23" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="U23" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="S24" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="U24" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="S25" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="U25" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="U26" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="S27" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="T27" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="U27" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="S28" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="T28" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="U28" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="S29" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="T29" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="U29" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="S30" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="T30" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="U30" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="S31" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="T31" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="U31" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="S32" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="T32" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="U32" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="S33" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="T33" r:id="rId90" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="U33" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="S34" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="T34" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="U34" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="U2" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="T3" r:id="rId4"/>
+    <hyperlink ref="U3" r:id="rId5"/>
+    <hyperlink ref="S4" r:id="rId6"/>
+    <hyperlink ref="T4" r:id="rId7"/>
+    <hyperlink ref="U4" r:id="rId8"/>
+    <hyperlink ref="U5" r:id="rId9"/>
+    <hyperlink ref="S6" r:id="rId10"/>
+    <hyperlink ref="T6" r:id="rId11" location="new-afton-mine"/>
+    <hyperlink ref="U6" r:id="rId12"/>
+    <hyperlink ref="S7" r:id="rId13"/>
+    <hyperlink ref="T7" r:id="rId14"/>
+    <hyperlink ref="U7" r:id="rId15"/>
+    <hyperlink ref="S8" r:id="rId16"/>
+    <hyperlink ref="T8" r:id="rId17"/>
+    <hyperlink ref="U8" r:id="rId18"/>
+    <hyperlink ref="S9" r:id="rId19"/>
+    <hyperlink ref="T9" r:id="rId20"/>
+    <hyperlink ref="U9" r:id="rId21"/>
+    <hyperlink ref="S10" r:id="rId22"/>
+    <hyperlink ref="T10" r:id="rId23"/>
+    <hyperlink ref="U10" r:id="rId24"/>
+    <hyperlink ref="S11" r:id="rId25"/>
+    <hyperlink ref="T11" r:id="rId26"/>
+    <hyperlink ref="U11" r:id="rId27"/>
+    <hyperlink ref="S12" r:id="rId28"/>
+    <hyperlink ref="T12" r:id="rId29"/>
+    <hyperlink ref="U12" r:id="rId30"/>
+    <hyperlink ref="S13" r:id="rId31"/>
+    <hyperlink ref="T13" r:id="rId32" location="rainy-river-mine"/>
+    <hyperlink ref="U13" r:id="rId33"/>
+    <hyperlink ref="S14" r:id="rId34"/>
+    <hyperlink ref="T14" r:id="rId35"/>
+    <hyperlink ref="U14" r:id="rId36"/>
+    <hyperlink ref="S15" r:id="rId37"/>
+    <hyperlink ref="U15" r:id="rId38"/>
+    <hyperlink ref="S16" r:id="rId39"/>
+    <hyperlink ref="T16" r:id="rId40"/>
+    <hyperlink ref="U16" r:id="rId41"/>
+    <hyperlink ref="S17" r:id="rId42"/>
+    <hyperlink ref="T17" r:id="rId43"/>
+    <hyperlink ref="U17" r:id="rId44"/>
+    <hyperlink ref="S18" r:id="rId45"/>
+    <hyperlink ref="T18" r:id="rId46"/>
+    <hyperlink ref="U18" r:id="rId47"/>
+    <hyperlink ref="S19" r:id="rId48"/>
+    <hyperlink ref="T19" r:id="rId49"/>
+    <hyperlink ref="U19" r:id="rId50"/>
+    <hyperlink ref="S20" r:id="rId51"/>
+    <hyperlink ref="T20" r:id="rId52"/>
+    <hyperlink ref="U20" r:id="rId53"/>
+    <hyperlink ref="S21" r:id="rId54"/>
+    <hyperlink ref="T21" r:id="rId55" location="operations"/>
+    <hyperlink ref="U21" r:id="rId56"/>
+    <hyperlink ref="S22" r:id="rId57"/>
+    <hyperlink ref="T22" r:id="rId58"/>
+    <hyperlink ref="U22" r:id="rId59"/>
+    <hyperlink ref="S23" r:id="rId60"/>
+    <hyperlink ref="T23" r:id="rId61"/>
+    <hyperlink ref="U23" r:id="rId62"/>
+    <hyperlink ref="S24" r:id="rId63"/>
+    <hyperlink ref="T24" r:id="rId64"/>
+    <hyperlink ref="U24" r:id="rId65"/>
+    <hyperlink ref="S25" r:id="rId66"/>
+    <hyperlink ref="T25" r:id="rId67"/>
+    <hyperlink ref="U25" r:id="rId68"/>
+    <hyperlink ref="S26" r:id="rId69"/>
+    <hyperlink ref="U26" r:id="rId70"/>
+    <hyperlink ref="S27" r:id="rId71"/>
+    <hyperlink ref="T27" r:id="rId72"/>
+    <hyperlink ref="U27" r:id="rId73"/>
+    <hyperlink ref="S28" r:id="rId74"/>
+    <hyperlink ref="T28" r:id="rId75"/>
+    <hyperlink ref="U28" r:id="rId76"/>
+    <hyperlink ref="S29" r:id="rId77"/>
+    <hyperlink ref="T29" r:id="rId78"/>
+    <hyperlink ref="U29" r:id="rId79"/>
+    <hyperlink ref="S30" r:id="rId80"/>
+    <hyperlink ref="T30" r:id="rId81"/>
+    <hyperlink ref="U30" r:id="rId82"/>
+    <hyperlink ref="S31" r:id="rId83"/>
+    <hyperlink ref="T31" r:id="rId84"/>
+    <hyperlink ref="U31" r:id="rId85"/>
+    <hyperlink ref="S32" r:id="rId86"/>
+    <hyperlink ref="T32" r:id="rId87"/>
+    <hyperlink ref="U32" r:id="rId88"/>
+    <hyperlink ref="S33" r:id="rId89"/>
+    <hyperlink ref="T33" r:id="rId90"/>
+    <hyperlink ref="U33" r:id="rId91"/>
+    <hyperlink ref="S34" r:id="rId92"/>
+    <hyperlink ref="T34" r:id="rId93"/>
+    <hyperlink ref="U34" r:id="rId94"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MetalliCan/sample_ids.xlsx
+++ b/data/MetalliCan/sample_ids.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="578">
   <si>
     <t>main_id</t>
   </si>
@@ -1005,21 +1005,12 @@
     <t>QC-MAIN-5ce331b8</t>
   </si>
   <si>
-    <t>BC-MAIN-e34feb4d</t>
-  </si>
-  <si>
     <t>QC-MAIN-089f3c60</t>
   </si>
   <si>
     <t>SK-MAIN-26b9aaf3</t>
   </si>
   <si>
-    <t>NL-MAIN-c139de6d</t>
-  </si>
-  <si>
-    <t>ON-MAIN-f8313ebd</t>
-  </si>
-  <si>
     <t>YT-MAIN-44857446</t>
   </si>
   <si>
@@ -1041,9 +1032,6 @@
     <t>ON-MAIN-4e0734b5</t>
   </si>
   <si>
-    <t>YT-MAIN-752fbcae</t>
-  </si>
-  <si>
     <t>SK-MAIN-60ba74c4</t>
   </si>
   <si>
@@ -1056,33 +1044,18 @@
     <t>NL-MAIN-b64bae7a</t>
   </si>
   <si>
-    <t>NL-MAIN-18695c6d</t>
-  </si>
-  <si>
     <t>BC-MAIN-bf503b6b</t>
   </si>
   <si>
     <t>BC-MAIN-3bb6b7cd</t>
   </si>
   <si>
-    <t>BC-MAIN-23155c25</t>
-  </si>
-  <si>
-    <t>QC-MAIN-b2148882</t>
-  </si>
-  <si>
     <t>ON-MAIN-2e13aaa0</t>
   </si>
   <si>
-    <t>MB-MAIN-e0a6250e</t>
-  </si>
-  <si>
     <t>NL-MAIN-d9036091</t>
   </si>
   <si>
-    <t>NL-MAIN-2d8801d6</t>
-  </si>
-  <si>
     <t>LaRonde</t>
   </si>
   <si>
@@ -1113,21 +1086,12 @@
     <t>Nunavik Nickel</t>
   </si>
   <si>
-    <t>Kemess</t>
-  </si>
-  <si>
     <t>Bloom Lake</t>
   </si>
   <si>
     <t>EVRAZ Regina</t>
   </si>
   <si>
-    <t>Ming</t>
-  </si>
-  <si>
-    <t>Kidd Creek</t>
-  </si>
-  <si>
     <t>Keno Hill Silver District</t>
   </si>
   <si>
@@ -1149,9 +1113,6 @@
     <t>Fox Complex</t>
   </si>
   <si>
-    <t>Minto</t>
-  </si>
-  <si>
     <t>McClean Lake</t>
   </si>
   <si>
@@ -1164,33 +1125,18 @@
     <t>Scully</t>
   </si>
   <si>
-    <t>Scully Mine - Manganese project</t>
-  </si>
-  <si>
     <t>Highland Valley</t>
   </si>
   <si>
     <t>Trail</t>
   </si>
   <si>
-    <t>Myra Falls</t>
-  </si>
-  <si>
-    <t>Troilus</t>
-  </si>
-  <si>
     <t>Port Colborne</t>
   </si>
   <si>
-    <t>Thompson (T-1 and T-3)</t>
-  </si>
-  <si>
     <t>Long Harbour</t>
   </si>
   <si>
-    <t>Voisey’s Bay</t>
-  </si>
-  <si>
     <t>CMP-140e111b</t>
   </si>
   <si>
@@ -1221,12 +1167,6 @@
     <t>CMP-28720916</t>
   </si>
   <si>
-    <t>CMP-24a4f1d5</t>
-  </si>
-  <si>
-    <t>CMP-d5f1c66b</t>
-  </si>
-  <si>
     <t>CMP-a27e87a3</t>
   </si>
   <si>
@@ -1245,9 +1185,6 @@
     <t>CMP-3ff42329</t>
   </si>
   <si>
-    <t>CMP-e0e7077f</t>
-  </si>
-  <si>
     <t>CMP-43299e17</t>
   </si>
   <si>
@@ -1263,12 +1200,6 @@
     <t>CMP-06e20c6e</t>
   </si>
   <si>
-    <t>CMP-05423572</t>
-  </si>
-  <si>
-    <t>CMP-1fbde0ec</t>
-  </si>
-  <si>
     <t>CMP-9617aef4</t>
   </si>
   <si>
@@ -1299,12 +1230,6 @@
     <t>EVRAZ North America Inc</t>
   </si>
   <si>
-    <t>FireFly Metals Ltd</t>
-  </si>
-  <si>
-    <t>Glencore</t>
-  </si>
-  <si>
     <t>Heico Companies, LLC</t>
   </si>
   <si>
@@ -1323,9 +1248,6 @@
     <t>McEwen Mining Inc</t>
   </si>
   <si>
-    <t>Minto Metals Corporation</t>
-  </si>
-  <si>
     <t>Orano Canada Inc</t>
   </si>
   <si>
@@ -1341,12 +1263,6 @@
     <t>Teck Resources Limited</t>
   </si>
   <si>
-    <t>Trafigura Mining Group</t>
-  </si>
-  <si>
-    <t>Troilus Gold Corporation</t>
-  </si>
-  <si>
     <t>Vale</t>
   </si>
   <si>
@@ -1368,9 +1284,6 @@
     <t>Fermont</t>
   </si>
   <si>
-    <t>Baie Verte</t>
-  </si>
-  <si>
     <t>Mayo</t>
   </si>
   <si>
@@ -1389,9 +1302,6 @@
     <t>Matheson</t>
   </si>
   <si>
-    <t>Pelly Crossing</t>
-  </si>
-  <si>
     <t>La Corne</t>
   </si>
   <si>
@@ -1401,27 +1311,18 @@
     <t>Logan Lake</t>
   </si>
   <si>
-    <t>Strathcona</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
     <t>Northwest Territories</t>
   </si>
   <si>
+    <t>Yukon</t>
+  </si>
+  <si>
     <t>Newfoundland and Labrador</t>
   </si>
   <si>
-    <t>Yukon</t>
-  </si>
-  <si>
     <t>Alberta</t>
   </si>
   <si>
-    <t>Manitoba</t>
-  </si>
-  <si>
     <t>POINT (-78.428 48.2516)</t>
   </si>
   <si>
@@ -1452,21 +1353,12 @@
     <t>POINT (-74.1375 61.420856)</t>
   </si>
   <si>
-    <t>POINT (-126.77117 57.05037)</t>
-  </si>
-  <si>
     <t>POINT (-67.28 52.84)</t>
   </si>
   <si>
     <t>POINT (-104.623843 50.515263)</t>
   </si>
   <si>
-    <t>POINT (-56.087 49.915)</t>
-  </si>
-  <si>
-    <t>POINT (-81.37 48.6894)</t>
-  </si>
-  <si>
     <t>POINT (-135.4833 63.9167)</t>
   </si>
   <si>
@@ -1488,9 +1380,6 @@
     <t>POINT (-80.340814 48.534362)</t>
   </si>
   <si>
-    <t>POINT (-137.23858 62.618875)</t>
-  </si>
-  <si>
     <t>POINT (-103.8361 58.3472)</t>
   </si>
   <si>
@@ -1503,51 +1392,21 @@
     <t>POINT (-66.912573 52.907129)</t>
   </si>
   <si>
-    <t>POINT (-66.91222 52.91806)</t>
-  </si>
-  <si>
     <t>POINT (-121.0483 50.4855)</t>
   </si>
   <si>
     <t>POINT (-117.7137 49.0999)</t>
   </si>
   <si>
-    <t>POINT (-125.59 49.57)</t>
-  </si>
-  <si>
-    <t>POINT (-74.46 51.01)</t>
-  </si>
-  <si>
     <t>POINT (-79.24 42.883)</t>
   </si>
   <si>
-    <t>POINT (-97.8444 55.7152)</t>
-  </si>
-  <si>
     <t>POINT (-53.811792 47.410938)</t>
   </si>
   <si>
-    <t>POINT (-62.090855 56.331659)</t>
-  </si>
-  <si>
-    <t>project_facility</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Advanced project</t>
-  </si>
-  <si>
-    <t>Advanced unconventional project</t>
-  </si>
-  <si>
     <t>manufacturing</t>
   </si>
   <si>
-    <t>project</t>
-  </si>
-  <si>
     <t>Smelter</t>
   </si>
   <si>
@@ -1602,9 +1461,6 @@
     <t>Nickel, copper, platinum group metals, cobalt</t>
   </si>
   <si>
-    <t>Copper, zinc, silver, selenium, indium</t>
-  </si>
-  <si>
     <t>Silver, zinc, lead</t>
   </si>
   <si>
@@ -1620,24 +1476,15 @@
     <t>Nickel, cobalt, copper sulfide, ammonium sulfate</t>
   </si>
   <si>
-    <t>Manganese</t>
-  </si>
-  <si>
     <t>Copper, silver, molybdenum</t>
   </si>
   <si>
     <t>Zinc, lead, bismuth, cadmium, indium, germanium, precious metals, liquid sulfur dioxide, sulfuric acid</t>
   </si>
   <si>
-    <t>Zinc, copper, silver, gold, lead</t>
-  </si>
-  <si>
     <t>Electrolytic cobalt, platinum group metals (in residues), copper oxide</t>
   </si>
   <si>
-    <t>Nickel, cobalt, copper, platinum group metals, gold, silver</t>
-  </si>
-  <si>
     <t>Nickel, copper, cobalt</t>
   </si>
   <si>
@@ -1665,12 +1512,6 @@
     <t>EVRAZ North America Inc (100%)</t>
   </si>
   <si>
-    <t>FireFly Metals Ltd (100%)</t>
-  </si>
-  <si>
-    <t>Glencore (100%)</t>
-  </si>
-  <si>
     <t>Heico Companies LLC (100%)</t>
   </si>
   <si>
@@ -1689,9 +1530,6 @@
     <t>McEwen Mining Inc (100%)</t>
   </si>
   <si>
-    <t>Pembridge Resources PLC (11.2%),  Cedro Holdings I LLC (27.7%),  Copper Holdings LLC (37%)</t>
-  </si>
-  <si>
     <t>Orano Canada Inc (77.5%), Denison Mines Corp (22.5%)</t>
   </si>
   <si>
@@ -1704,9 +1542,6 @@
     <t>Tacora Resources Inc (100%)</t>
   </si>
   <si>
-    <t>Trafigura Mining Group (100%)</t>
-  </si>
-  <si>
     <t>Vale (90%), Manara Minerals Investment Co (10%)</t>
   </si>
   <si>
@@ -1719,34 +1554,19 @@
     <t>Quebec Iron Ore Inc</t>
   </si>
   <si>
-    <t>Glencore Canada Corporation</t>
-  </si>
-  <si>
     <t>Mount Polley Mining Corp</t>
   </si>
   <si>
     <t>Niobec Inc</t>
   </si>
   <si>
-    <t>Myra Falls Mine Ltd</t>
-  </si>
-  <si>
     <t>1988–open</t>
   </si>
   <si>
-    <t>1963–open</t>
-  </si>
-  <si>
     <t>1976–open</t>
   </si>
   <si>
     <t>2009–open</t>
-  </si>
-  <si>
-    <t>1966–1985; 2002–2015; 2019–open</t>
-  </si>
-  <si>
-    <t>2005–open</t>
   </si>
   <si>
     <t>https://www.alcoa.com/global/en/home/</t>
@@ -1777,12 +1597,6 @@
     <t>https://www.evrazna.com/</t>
   </si>
   <si>
-    <t>https://fireflymetals.com.au</t>
-  </si>
-  <si>
-    <t>https://www.glencore.ca/en</t>
-  </si>
-  <si>
     <t>https://heicocompanies.com/</t>
   </si>
   <si>
@@ -1801,9 +1615,6 @@
     <t>https://mcewenmining.com/</t>
   </si>
   <si>
-    <t>https://www.pwc.com/ca/en/services/insolvency-assignments/minto.html</t>
-  </si>
-  <si>
     <t>https://www.orano.group/canada/en</t>
   </si>
   <si>
@@ -1817,9 +1628,6 @@
   </si>
   <si>
     <t>https://www.teck.com/</t>
-  </si>
-  <si>
-    <t>https://www.trafigura.com/</t>
   </si>
   <si>
     <t>https://vale.com/canada</t>
@@ -1851,12 +1659,6 @@
     <t>https://www.gem.wiki/Evraz_Regina_Steel_plant</t>
   </si>
   <si>
-    <t>https://fireflymetals.com.au/ming-underground-mine/</t>
-  </si>
-  <si>
-    <t>https://www.glencore.ca/en/raglan/</t>
-  </si>
-  <si>
     <t>https://www.hecla.com/operations/casa-berardi-quebec-canada</t>
   </si>
   <si>
@@ -1894,15 +1696,9 @@
     <t>https://vale.com/thompson</t>
   </si>
   <si>
-    <t>https://vale.com/port-colborne</t>
-  </si>
-  <si>
     <t>https://vale.com/voisey-s-bay</t>
   </si>
   <si>
-    <t>https://vale.com/long-harbour</t>
-  </si>
-  <si>
     <t>https://miningdataonline.com/property/47/Meadowbank-Mine.aspx</t>
   </si>
   <si>
@@ -1924,12 +1720,6 @@
     <t>https://miningdataonline.com/property/3027/Bloom-Lake-Mine.aspx</t>
   </si>
   <si>
-    <t>https://miningdataonline.com/property/960/Ming-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://miningdataonline.com/property/68/Raglan-Mine.aspx</t>
-  </si>
-  <si>
     <t>https://miningdataonline.com/property/24/Casa-Berardi-Mine.aspx</t>
   </si>
   <si>
@@ -1951,9 +1741,6 @@
     <t>https://miningdataonline.com/property/588/Fox-Complex.aspx</t>
   </si>
   <si>
-    <t>https://miningdataonline.com/property/58/Minto-Mine.aspx</t>
-  </si>
-  <si>
     <t>https://miningdataonline.com/property/98/McClean-Lake-Mine.aspx</t>
   </si>
   <si>
@@ -1963,16 +1750,10 @@
     <t>https://miningdataonline.com/property/4651/Scully-Mine.aspx</t>
   </si>
   <si>
-    <t>https://miningdataonline.com/property/64/Myra-Falls-Mine.aspx</t>
-  </si>
-  <si>
     <t>https://miningdataonline.com/property/1377/Thompson-Mine.aspx</t>
   </si>
   <si>
     <t>https://miningdataonline.com/property/417/Voiseys-Bay-Mine.aspx</t>
-  </si>
-  <si>
-    <t>https://open.canada.ca/data/en/dataset/22b2db8a-dc12-47f2-9737-99d3da921751</t>
   </si>
 </sst>
 </file>
@@ -4308,7 +4089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4573,7 +4354,7 @@
         <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
         <v>91</v>
@@ -4582,13 +4363,13 @@
         <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="H5" t="s">
         <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="J5" t="s">
         <v>184</v>
@@ -4603,7 +4384,7 @@
         <v>193</v>
       </c>
       <c r="P5" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="Q5" t="s">
         <v>202</v>
@@ -4612,16 +4393,16 @@
         <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>247</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>602</v>
+        <v>538</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>627</v>
+        <v>559</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>317</v>
@@ -4874,46 +4655,46 @@
         <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F10" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="H10" t="s">
         <v>150</v>
       </c>
       <c r="I10" t="s">
+        <v>436</v>
+      </c>
+      <c r="J10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" t="s">
+        <v>462</v>
+      </c>
+      <c r="N10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O10" t="s">
         <v>469</v>
       </c>
-      <c r="J10" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" t="s">
-        <v>508</v>
-      </c>
-      <c r="N10" t="s">
-        <v>510</v>
-      </c>
-      <c r="O10" t="s">
-        <v>516</v>
-      </c>
       <c r="P10" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="Q10" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="R10" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="V10" t="s">
         <v>276</v>
@@ -4927,46 +4708,46 @@
         <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="H11" t="s">
         <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="J11" t="s">
         <v>184</v>
       </c>
       <c r="M11" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="N11" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="O11" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="P11" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="Q11" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="R11" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="V11" t="s">
         <v>276</v>
@@ -4980,46 +4761,46 @@
         <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E12" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="H12" t="s">
         <v>150</v>
       </c>
       <c r="I12" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="J12" t="s">
         <v>184</v>
       </c>
       <c r="M12" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="N12" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="O12" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="P12" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="Q12" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="R12" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="V12" t="s">
         <v>276</v>
@@ -5033,37 +4814,37 @@
         <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E13" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F13" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="H13" t="s">
         <v>151</v>
       </c>
       <c r="I13" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="J13" t="s">
         <v>184</v>
       </c>
       <c r="M13" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="N13" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="O13" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="P13" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="V13" t="s">
         <v>276</v>
@@ -5077,13 +4858,13 @@
         <v>324</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F14" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="G14" t="s">
         <v>141</v>
@@ -5092,7 +4873,7 @@
         <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="J14" t="s">
         <v>184</v>
@@ -5113,13 +4894,13 @@
         <v>203</v>
       </c>
       <c r="R14" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>628</v>
+        <v>560</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>318</v>
@@ -5130,22 +4911,22 @@
         <v>325</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E15" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
         <v>276</v>
       </c>
       <c r="G15" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="H15" t="s">
         <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="J15" t="s">
         <v>184</v>
@@ -5157,25 +4938,25 @@
         <v>191</v>
       </c>
       <c r="O15" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="P15" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="Q15" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="R15" t="s">
         <v>109</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>605</v>
+        <v>541</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>629</v>
+        <v>561</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>318</v>
@@ -5245,22 +5026,22 @@
         <v>326</v>
       </c>
       <c r="B17" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F17" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="G17" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="H17" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="I17" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="J17" t="s">
         <v>184</v>
@@ -5269,31 +5050,31 @@
         <v>185</v>
       </c>
       <c r="N17" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="O17" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="P17" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="Q17" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="R17" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="S17" t="s">
         <v>240</v>
       </c>
       <c r="T17" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="U17" t="s">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>630</v>
+        <v>562</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>317</v>
@@ -5304,22 +5085,22 @@
         <v>327</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E18" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F18" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="G18" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="H18" t="s">
         <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="J18" t="s">
         <v>184</v>
@@ -5331,28 +5112,28 @@
         <v>192</v>
       </c>
       <c r="O18" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="P18" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="Q18" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="R18" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
       <c r="S18" t="s">
         <v>241</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>607</v>
+        <v>543</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>631</v>
+        <v>563</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>317</v>
@@ -5363,22 +5144,22 @@
         <v>328</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E19" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F19" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="G19" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="H19" t="s">
         <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="J19" t="s">
         <v>184</v>
@@ -5393,22 +5174,22 @@
         <v>195</v>
       </c>
       <c r="P19" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="Q19" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="R19" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="U19" t="s">
         <v>276</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>632</v>
+        <v>564</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>318</v>
@@ -5416,10 +5197,10 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>94</v>
@@ -5427,55 +5208,73 @@
       <c r="F20" t="s">
         <v>110</v>
       </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
       <c r="H20" t="s">
         <v>152</v>
       </c>
       <c r="I20" t="s">
-        <v>478</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>504</v>
-      </c>
-      <c r="K20" t="s">
-        <v>505</v>
-      </c>
-      <c r="L20" t="s">
-        <v>506</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s">
-        <v>509</v>
+        <v>185</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>194</v>
       </c>
       <c r="P20" t="s">
         <v>198</v>
       </c>
+      <c r="Q20" t="s">
+        <v>205</v>
+      </c>
+      <c r="R20" t="s">
+        <v>223</v>
+      </c>
+      <c r="S20" t="s">
+        <v>232</v>
+      </c>
       <c r="T20" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="U20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="W20" s="2" t="s">
-        <v>650</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>356</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>421</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>445</v>
       </c>
       <c r="J21" t="s">
         <v>184</v>
@@ -5484,57 +5283,54 @@
         <v>185</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>194</v>
+        <v>470</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>479</v>
       </c>
       <c r="Q21" t="s">
-        <v>205</v>
+        <v>496</v>
       </c>
       <c r="R21" t="s">
-        <v>223</v>
-      </c>
-      <c r="S21" t="s">
-        <v>232</v>
+        <v>511</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>250</v>
+        <v>524</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>272</v>
+        <v>544</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>296</v>
+        <v>565</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>366</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>399</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>425</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>449</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
         <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>479</v>
+        <v>163</v>
       </c>
       <c r="J22" t="s">
         <v>184</v>
@@ -5543,28 +5339,28 @@
         <v>185</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>517</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s">
-        <v>526</v>
+        <v>196</v>
       </c>
       <c r="Q22" t="s">
-        <v>547</v>
+        <v>206</v>
       </c>
       <c r="R22" t="s">
-        <v>566</v>
+        <v>111</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>584</v>
+        <v>251</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>608</v>
+        <v>273</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>633</v>
+        <v>297</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>318</v>
@@ -5572,25 +5368,25 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
         <v>184</v>
@@ -5605,190 +5401,193 @@
         <v>193</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R23" t="s">
         <v>111</v>
       </c>
+      <c r="S23" t="s">
+        <v>233</v>
+      </c>
       <c r="T23" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" t="s">
-        <v>132</v>
+        <v>403</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>446</v>
       </c>
       <c r="J24" t="s">
         <v>184</v>
       </c>
       <c r="M24" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>466</v>
       </c>
       <c r="O24" t="s">
-        <v>193</v>
+        <v>470</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>478</v>
       </c>
       <c r="Q24" t="s">
-        <v>207</v>
+        <v>497</v>
       </c>
       <c r="R24" t="s">
-        <v>111</v>
-      </c>
-      <c r="S24" t="s">
-        <v>233</v>
+        <v>403</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>252</v>
+        <v>525</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>298</v>
+        <v>545</v>
+      </c>
+      <c r="V24" t="s">
+        <v>276</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>367</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>400</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>426</v>
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I25" t="s">
-        <v>480</v>
+        <v>165</v>
       </c>
       <c r="J25" t="s">
         <v>184</v>
       </c>
       <c r="M25" t="s">
-        <v>508</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s">
-        <v>513</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>517</v>
+        <v>193</v>
       </c>
       <c r="P25" t="s">
-        <v>525</v>
+        <v>197</v>
       </c>
       <c r="Q25" t="s">
-        <v>548</v>
+        <v>208</v>
       </c>
       <c r="R25" t="s">
-        <v>426</v>
+        <v>113</v>
+      </c>
+      <c r="S25" t="s">
+        <v>234</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>585</v>
+        <v>253</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="V25" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>427</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="H26" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="I26" t="s">
+        <v>447</v>
+      </c>
+      <c r="J26" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26" t="s">
+        <v>190</v>
+      </c>
+      <c r="O26" t="s">
+        <v>473</v>
+      </c>
+      <c r="P26" t="s">
         <v>481</v>
       </c>
-      <c r="J26" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" t="s">
-        <v>185</v>
-      </c>
-      <c r="N26" t="s">
-        <v>192</v>
-      </c>
-      <c r="O26" t="s">
-        <v>195</v>
-      </c>
-      <c r="P26" t="s">
-        <v>198</v>
-      </c>
       <c r="Q26" t="s">
-        <v>549</v>
+        <v>208</v>
       </c>
       <c r="R26" t="s">
-        <v>427</v>
+        <v>113</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>586</v>
+        <v>253</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>610</v>
+        <v>546</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>634</v>
+        <v>566</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>318</v>
@@ -5796,84 +5595,75 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E27" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="F27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G27" t="s">
-        <v>141</v>
+        <v>404</v>
       </c>
       <c r="H27" t="s">
         <v>151</v>
       </c>
       <c r="I27" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="J27" t="s">
         <v>184</v>
       </c>
       <c r="M27" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="N27" t="s">
-        <v>190</v>
+        <v>466</v>
       </c>
       <c r="O27" t="s">
-        <v>195</v>
+        <v>470</v>
       </c>
       <c r="P27" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="Q27" t="s">
-        <v>550</v>
-      </c>
-      <c r="R27" t="s">
+        <v>498</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="V27" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="S27" t="s">
-        <v>572</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="W27" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J28" t="s">
         <v>184</v>
@@ -5882,31 +5672,31 @@
         <v>185</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R28" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="S28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
+      </c>
+      <c r="U28" t="s">
+        <v>276</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>317</v>
@@ -5914,25 +5704,25 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>451</v>
+        <v>135</v>
       </c>
       <c r="H29" t="s">
-        <v>465</v>
+        <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>483</v>
+        <v>167</v>
       </c>
       <c r="J29" t="s">
         <v>184</v>
@@ -5944,101 +5734,113 @@
         <v>190</v>
       </c>
       <c r="O29" t="s">
-        <v>520</v>
+        <v>193</v>
       </c>
       <c r="P29" t="s">
-        <v>529</v>
+        <v>197</v>
       </c>
       <c r="Q29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R29" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="S29" t="s">
+        <v>232</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>612</v>
+        <v>277</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>636</v>
+        <v>301</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>403</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>429</v>
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>136</v>
       </c>
       <c r="H30" t="s">
         <v>151</v>
       </c>
       <c r="I30" t="s">
-        <v>484</v>
+        <v>168</v>
       </c>
       <c r="J30" t="s">
         <v>184</v>
       </c>
       <c r="M30" t="s">
-        <v>508</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s">
-        <v>513</v>
+        <v>189</v>
       </c>
       <c r="O30" t="s">
-        <v>517</v>
+        <v>193</v>
       </c>
       <c r="P30" t="s">
-        <v>525</v>
+        <v>199</v>
       </c>
       <c r="Q30" t="s">
-        <v>551</v>
+        <v>211</v>
+      </c>
+      <c r="R30" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" t="s">
+        <v>236</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>588</v>
+        <v>256</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>613</v>
+        <v>278</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>637</v>
+        <v>302</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>360</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>384</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>405</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>423</v>
       </c>
       <c r="H31" t="s">
         <v>152</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>449</v>
       </c>
       <c r="J31" t="s">
         <v>184</v>
@@ -6053,51 +5855,48 @@
         <v>195</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q31" t="s">
-        <v>209</v>
+        <v>499</v>
       </c>
       <c r="R31" t="s">
-        <v>224</v>
-      </c>
-      <c r="S31" t="s">
-        <v>235</v>
+        <v>512</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="U31" t="s">
-        <v>276</v>
+        <v>527</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>385</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>406</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>424</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>433</v>
       </c>
       <c r="I32" t="s">
-        <v>167</v>
+        <v>450</v>
       </c>
       <c r="J32" t="s">
         <v>184</v>
@@ -6106,57 +5905,51 @@
         <v>185</v>
       </c>
       <c r="N32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O32" t="s">
-        <v>193</v>
+        <v>470</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>479</v>
       </c>
       <c r="Q32" t="s">
-        <v>210</v>
-      </c>
-      <c r="R32" t="s">
-        <v>115</v>
-      </c>
-      <c r="S32" t="s">
-        <v>232</v>
+        <v>500</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>255</v>
+        <v>528</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>277</v>
+        <v>549</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>301</v>
+        <v>569</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>407</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>425</v>
       </c>
       <c r="H33" t="s">
         <v>151</v>
       </c>
       <c r="I33" t="s">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="J33" t="s">
         <v>184</v>
@@ -6165,34 +5958,28 @@
         <v>185</v>
       </c>
       <c r="N33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>482</v>
       </c>
       <c r="Q33" t="s">
-        <v>211</v>
-      </c>
-      <c r="R33" t="s">
-        <v>116</v>
-      </c>
-      <c r="S33" t="s">
-        <v>236</v>
+        <v>501</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>256</v>
+        <v>529</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>278</v>
+        <v>550</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>302</v>
+        <v>570</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -6200,23 +5987,23 @@
         <v>336</v>
       </c>
       <c r="B34" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E34" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="F34" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="G34" t="s">
+        <v>426</v>
+      </c>
+      <c r="H34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" t="s">
         <v>452</v>
       </c>
-      <c r="H34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" t="s">
-        <v>485</v>
-      </c>
       <c r="J34" t="s">
         <v>184</v>
       </c>
@@ -6224,31 +6011,34 @@
         <v>185</v>
       </c>
       <c r="N34" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O34" t="s">
-        <v>195</v>
+        <v>474</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>483</v>
       </c>
       <c r="Q34" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="R34" t="s">
-        <v>568</v>
+        <v>513</v>
+      </c>
+      <c r="S34" t="s">
+        <v>515</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -6256,23 +6046,23 @@
         <v>337</v>
       </c>
       <c r="B35" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E35" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F35" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="G35" t="s">
+        <v>427</v>
+      </c>
+      <c r="H35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" t="s">
         <v>453</v>
       </c>
-      <c r="H35" t="s">
-        <v>464</v>
-      </c>
-      <c r="I35" t="s">
-        <v>486</v>
-      </c>
       <c r="J35" t="s">
         <v>184</v>
       </c>
@@ -6280,51 +6070,54 @@
         <v>185</v>
       </c>
       <c r="N35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O35" t="s">
-        <v>517</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s">
-        <v>526</v>
+        <v>196</v>
       </c>
       <c r="Q35" t="s">
-        <v>553</v>
+        <v>503</v>
+      </c>
+      <c r="S35" t="s">
+        <v>516</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>615</v>
+        <v>552</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>406</v>
+        <v>101</v>
       </c>
       <c r="F36" t="s">
-        <v>432</v>
+        <v>117</v>
       </c>
       <c r="G36" t="s">
-        <v>454</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>487</v>
+        <v>169</v>
       </c>
       <c r="J36" t="s">
         <v>184</v>
@@ -6333,51 +6126,54 @@
         <v>185</v>
       </c>
       <c r="N36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O36" t="s">
         <v>194</v>
       </c>
       <c r="P36" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="Q36" t="s">
-        <v>554</v>
+        <v>212</v>
+      </c>
+      <c r="S36" t="s">
+        <v>237</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>591</v>
+        <v>257</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>616</v>
+        <v>279</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>640</v>
+        <v>303</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>455</v>
+        <v>138</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I37" t="s">
-        <v>488</v>
+        <v>170</v>
       </c>
       <c r="J37" t="s">
         <v>184</v>
@@ -6386,31 +6182,28 @@
         <v>185</v>
       </c>
       <c r="N37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O37" t="s">
-        <v>521</v>
+        <v>193</v>
       </c>
       <c r="P37" t="s">
-        <v>531</v>
+        <v>197</v>
       </c>
       <c r="Q37" t="s">
-        <v>555</v>
-      </c>
-      <c r="R37" t="s">
-        <v>569</v>
+        <v>212</v>
       </c>
       <c r="S37" t="s">
-        <v>573</v>
+        <v>238</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>592</v>
+        <v>257</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>617</v>
+        <v>280</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>641</v>
+        <v>304</v>
       </c>
       <c r="W37" s="2" t="s">
         <v>317</v>
@@ -6418,25 +6211,31 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>376</v>
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>408</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>434</v>
+        <v>118</v>
       </c>
       <c r="G38" t="s">
-        <v>456</v>
+        <v>139</v>
       </c>
       <c r="H38" t="s">
         <v>151</v>
       </c>
       <c r="I38" t="s">
-        <v>489</v>
+        <v>171</v>
       </c>
       <c r="J38" t="s">
         <v>184</v>
@@ -6445,7 +6244,7 @@
         <v>185</v>
       </c>
       <c r="N38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O38" t="s">
         <v>193</v>
@@ -6454,19 +6253,19 @@
         <v>196</v>
       </c>
       <c r="Q38" t="s">
-        <v>556</v>
+        <v>213</v>
       </c>
       <c r="S38" t="s">
-        <v>574</v>
+        <v>225</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>593</v>
+        <v>258</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>618</v>
+        <v>281</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>642</v>
+        <v>305</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>317</v>
@@ -6474,25 +6273,25 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>409</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>435</v>
+        <v>118</v>
       </c>
       <c r="G39" t="s">
-        <v>457</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>465</v>
+        <v>152</v>
       </c>
       <c r="I39" t="s">
-        <v>490</v>
+        <v>172</v>
       </c>
       <c r="J39" t="s">
         <v>184</v>
@@ -6501,51 +6300,60 @@
         <v>185</v>
       </c>
       <c r="N39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q39" t="s">
-        <v>557</v>
-      </c>
-      <c r="R39" t="s">
-        <v>435</v>
+        <v>214</v>
+      </c>
+      <c r="S39" t="s">
+        <v>238</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>594</v>
+        <v>258</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>643</v>
+        <v>306</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J40" t="s">
         <v>184</v>
@@ -6554,54 +6362,57 @@
         <v>185</v>
       </c>
       <c r="N40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q40" t="s">
-        <v>212</v>
-      </c>
-      <c r="S40" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H41" t="s">
         <v>151</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J41" t="s">
         <v>184</v>
@@ -6610,28 +6421,25 @@
         <v>185</v>
       </c>
       <c r="N41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O41" t="s">
         <v>193</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q41" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="S41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="W41" s="2" t="s">
         <v>317</v>
@@ -6639,16 +6447,10 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
         <v>102</v>
@@ -6657,13 +6459,13 @@
         <v>118</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
         <v>151</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J42" t="s">
         <v>184</v>
@@ -6672,28 +6474,25 @@
         <v>185</v>
       </c>
       <c r="N42" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O42" t="s">
         <v>193</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S42" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="U42" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="V42" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="W42" s="2" t="s">
         <v>317</v>
@@ -6701,10 +6500,10 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
         <v>102</v>
@@ -6713,13 +6512,13 @@
         <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
         <v>152</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J43" t="s">
         <v>184</v>
@@ -6728,28 +6527,28 @@
         <v>185</v>
       </c>
       <c r="N43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q43" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="S43" t="s">
-        <v>238</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>282</v>
+        <v>241</v>
+      </c>
+      <c r="T43" t="s">
+        <v>259</v>
+      </c>
+      <c r="U43" t="s">
+        <v>259</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="W43" s="2" t="s">
         <v>317</v>
@@ -6757,31 +6556,25 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>410</v>
       </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="H44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>454</v>
       </c>
       <c r="J44" t="s">
         <v>184</v>
@@ -6790,25 +6583,28 @@
         <v>185</v>
       </c>
       <c r="N44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O44" t="s">
-        <v>193</v>
+        <v>472</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>472</v>
       </c>
       <c r="Q44" t="s">
-        <v>215</v>
+        <v>504</v>
+      </c>
+      <c r="R44" t="s">
+        <v>410</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>258</v>
+        <v>532</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>281</v>
+        <v>553</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>307</v>
+        <v>573</v>
       </c>
       <c r="W44" s="2" t="s">
         <v>318</v>
@@ -6816,31 +6612,31 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" t="s">
         <v>151</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J45" t="s">
         <v>184</v>
@@ -6849,7 +6645,7 @@
         <v>185</v>
       </c>
       <c r="N45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O45" t="s">
         <v>193</v>
@@ -6858,16 +6654,19 @@
         <v>196</v>
       </c>
       <c r="Q45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S45" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>317</v>
@@ -6875,25 +6674,31 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H46" t="s">
         <v>151</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J46" t="s">
         <v>184</v>
@@ -6902,25 +6707,28 @@
         <v>185</v>
       </c>
       <c r="N46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O46" t="s">
         <v>193</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q46" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S46" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="W46" s="2" t="s">
         <v>317</v>
@@ -6928,25 +6736,25 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>390</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
-        <v>144</v>
+        <v>428</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>455</v>
       </c>
       <c r="J47" t="s">
         <v>184</v>
@@ -6955,84 +6763,75 @@
         <v>185</v>
       </c>
       <c r="N47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O47" t="s">
-        <v>195</v>
+        <v>474</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>484</v>
       </c>
       <c r="Q47" t="s">
-        <v>217</v>
-      </c>
-      <c r="S47" t="s">
-        <v>241</v>
-      </c>
-      <c r="T47" t="s">
-        <v>259</v>
-      </c>
-      <c r="U47" t="s">
-        <v>259</v>
+        <v>505</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>310</v>
+        <v>574</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E48" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F48" t="s">
-        <v>436</v>
-      </c>
-      <c r="G48" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>434</v>
       </c>
       <c r="I48" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="J48" t="s">
         <v>184</v>
       </c>
       <c r="M48" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="N48" t="s">
-        <v>188</v>
+        <v>467</v>
       </c>
       <c r="O48" t="s">
-        <v>519</v>
+        <v>195</v>
       </c>
       <c r="P48" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="Q48" t="s">
-        <v>558</v>
-      </c>
-      <c r="R48" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>595</v>
+        <v>534</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>644</v>
+        <v>555</v>
+      </c>
+      <c r="V48" t="s">
+        <v>276</v>
       </c>
       <c r="W48" s="2" t="s">
         <v>318</v>
@@ -7040,31 +6839,31 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J49" t="s">
         <v>184</v>
@@ -7073,7 +6872,7 @@
         <v>185</v>
       </c>
       <c r="N49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O49" t="s">
         <v>193</v>
@@ -7082,19 +6881,19 @@
         <v>196</v>
       </c>
       <c r="Q49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="W49" s="2" t="s">
         <v>317</v>
@@ -7102,31 +6901,31 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G50" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J50" t="s">
         <v>184</v>
@@ -7135,7 +6934,7 @@
         <v>185</v>
       </c>
       <c r="N50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O50" t="s">
         <v>193</v>
@@ -7144,45 +6943,42 @@
         <v>196</v>
       </c>
       <c r="Q50" t="s">
-        <v>218</v>
-      </c>
-      <c r="S50" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E51" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="F51" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="G51" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>433</v>
       </c>
       <c r="I51" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="J51" t="s">
         <v>184</v>
@@ -7191,25 +6987,25 @@
         <v>185</v>
       </c>
       <c r="N51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O51" t="s">
-        <v>521</v>
+        <v>470</v>
       </c>
       <c r="P51" t="s">
-        <v>532</v>
+        <v>479</v>
       </c>
       <c r="Q51" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>620</v>
+        <v>556</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>645</v>
+        <v>575</v>
       </c>
       <c r="W51" s="2" t="s">
         <v>318</v>
@@ -7217,81 +7013,81 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>344</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>412</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>121</v>
+      </c>
+      <c r="G52" t="s">
+        <v>147</v>
       </c>
       <c r="H52" t="s">
-        <v>466</v>
+        <v>152</v>
       </c>
       <c r="I52" t="s">
-        <v>493</v>
+        <v>181</v>
       </c>
       <c r="J52" t="s">
         <v>184</v>
       </c>
       <c r="M52" t="s">
-        <v>508</v>
+        <v>185</v>
       </c>
       <c r="N52" t="s">
-        <v>514</v>
+        <v>187</v>
       </c>
       <c r="O52" t="s">
         <v>195</v>
       </c>
       <c r="P52" t="s">
-        <v>533</v>
+        <v>201</v>
       </c>
       <c r="Q52" t="s">
-        <v>560</v>
+        <v>220</v>
+      </c>
+      <c r="S52" t="s">
+        <v>244</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>597</v>
+        <v>262</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="V52" t="s">
-        <v>276</v>
+        <v>285</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>393</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>430</v>
       </c>
       <c r="H53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>458</v>
       </c>
       <c r="J53" t="s">
         <v>184</v>
@@ -7300,87 +7096,54 @@
         <v>185</v>
       </c>
       <c r="N53" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>219</v>
-      </c>
-      <c r="S53" t="s">
-        <v>243</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>313</v>
+        <v>486</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>393</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" t="s">
-        <v>146</v>
+        <v>414</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I54" t="s">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="J54" t="s">
         <v>184</v>
       </c>
       <c r="M54" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="N54" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="O54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>219</v>
+        <v>487</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>313</v>
+        <v>536</v>
       </c>
       <c r="W54" s="2" t="s">
         <v>318</v>
@@ -7388,52 +7151,49 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
-      </c>
-      <c r="G55" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="H55" t="s">
-        <v>464</v>
+        <v>151</v>
       </c>
       <c r="I55" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="J55" t="s">
         <v>184</v>
       </c>
       <c r="M55" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="N55" t="s">
-        <v>187</v>
+        <v>467</v>
       </c>
       <c r="O55" t="s">
-        <v>517</v>
+        <v>195</v>
       </c>
       <c r="P55" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="Q55" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>622</v>
+        <v>557</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>646</v>
+        <v>576</v>
       </c>
       <c r="W55" s="2" t="s">
         <v>318</v>
@@ -7441,66 +7201,75 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E56" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="H56" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="I56" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="J56" t="s">
-        <v>504</v>
-      </c>
-      <c r="K56" t="s">
-        <v>505</v>
-      </c>
-      <c r="L56" t="s">
-        <v>507</v>
+        <v>184</v>
       </c>
       <c r="M56" t="s">
-        <v>509</v>
+        <v>462</v>
+      </c>
+      <c r="N56" t="s">
+        <v>467</v>
+      </c>
+      <c r="O56" t="s">
+        <v>195</v>
       </c>
       <c r="P56" t="s">
-        <v>534</v>
+        <v>489</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>508</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>598</v>
+        <v>537</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>650</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J57" t="s">
         <v>184</v>
@@ -7512,25 +7281,25 @@
         <v>187</v>
       </c>
       <c r="O57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W57" s="2" t="s">
         <v>317</v>
@@ -7538,25 +7307,25 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>347</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>414</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>440</v>
+        <v>122</v>
       </c>
       <c r="G58" t="s">
-        <v>460</v>
+        <v>148</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I58" t="s">
-        <v>496</v>
+        <v>183</v>
       </c>
       <c r="J58" t="s">
         <v>184</v>
@@ -7565,465 +7334,30 @@
         <v>185</v>
       </c>
       <c r="N58" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P58" t="s">
-        <v>535</v>
+        <v>196</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>221</v>
+      </c>
+      <c r="S58" t="s">
+        <v>246</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="A59" t="s">
-        <v>348</v>
-      </c>
-      <c r="B59" t="s">
-        <v>384</v>
-      </c>
-      <c r="E59" t="s">
-        <v>414</v>
-      </c>
-      <c r="F59" t="s">
-        <v>440</v>
-      </c>
-      <c r="H59" t="s">
-        <v>152</v>
-      </c>
-      <c r="I59" t="s">
-        <v>497</v>
-      </c>
-      <c r="J59" t="s">
-        <v>184</v>
-      </c>
-      <c r="M59" t="s">
-        <v>508</v>
-      </c>
-      <c r="N59" t="s">
-        <v>515</v>
-      </c>
-      <c r="O59" t="s">
-        <v>195</v>
-      </c>
-      <c r="P59" t="s">
-        <v>536</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
-      <c r="A60" t="s">
-        <v>349</v>
-      </c>
-      <c r="B60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E60" t="s">
-        <v>415</v>
-      </c>
-      <c r="F60" t="s">
-        <v>441</v>
-      </c>
-      <c r="G60" t="s">
-        <v>461</v>
-      </c>
-      <c r="H60" t="s">
-        <v>152</v>
-      </c>
-      <c r="I60" t="s">
-        <v>498</v>
-      </c>
-      <c r="J60" t="s">
-        <v>184</v>
-      </c>
-      <c r="M60" t="s">
-        <v>185</v>
-      </c>
-      <c r="N60" t="s">
-        <v>192</v>
-      </c>
-      <c r="O60" t="s">
-        <v>194</v>
-      </c>
-      <c r="P60" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>562</v>
-      </c>
-      <c r="R60" t="s">
-        <v>570</v>
-      </c>
-      <c r="S60" t="s">
-        <v>575</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="A61" t="s">
-        <v>350</v>
-      </c>
-      <c r="B61" t="s">
-        <v>386</v>
-      </c>
-      <c r="E61" t="s">
-        <v>416</v>
-      </c>
-      <c r="F61" t="s">
-        <v>442</v>
-      </c>
-      <c r="H61" t="s">
-        <v>150</v>
-      </c>
-      <c r="I61" t="s">
-        <v>499</v>
-      </c>
-      <c r="J61" t="s">
-        <v>504</v>
-      </c>
-      <c r="K61" t="s">
-        <v>505</v>
-      </c>
-      <c r="L61" t="s">
-        <v>506</v>
-      </c>
-      <c r="M61" t="s">
-        <v>509</v>
-      </c>
-      <c r="P61" t="s">
-        <v>200</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="A62" t="s">
-        <v>351</v>
-      </c>
-      <c r="B62" t="s">
-        <v>387</v>
-      </c>
-      <c r="E62" t="s">
-        <v>417</v>
-      </c>
-      <c r="F62" t="s">
-        <v>443</v>
-      </c>
-      <c r="H62" t="s">
-        <v>151</v>
-      </c>
-      <c r="I62" t="s">
-        <v>500</v>
-      </c>
-      <c r="J62" t="s">
-        <v>184</v>
-      </c>
-      <c r="M62" t="s">
-        <v>508</v>
-      </c>
-      <c r="N62" t="s">
-        <v>514</v>
-      </c>
-      <c r="O62" t="s">
-        <v>195</v>
-      </c>
-      <c r="P62" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>563</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
-      <c r="A63" t="s">
-        <v>352</v>
-      </c>
-      <c r="B63" t="s">
-        <v>388</v>
-      </c>
-      <c r="E63" t="s">
-        <v>417</v>
-      </c>
-      <c r="F63" t="s">
-        <v>443</v>
-      </c>
-      <c r="G63" t="s">
-        <v>462</v>
-      </c>
-      <c r="H63" t="s">
-        <v>467</v>
-      </c>
-      <c r="I63" t="s">
-        <v>501</v>
-      </c>
-      <c r="J63" t="s">
-        <v>184</v>
-      </c>
-      <c r="M63" t="s">
-        <v>185</v>
-      </c>
-      <c r="N63" t="s">
-        <v>189</v>
-      </c>
-      <c r="O63" t="s">
-        <v>195</v>
-      </c>
-      <c r="P63" t="s">
-        <v>539</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="V63" t="s">
-        <v>276</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
-      <c r="A64" t="s">
-        <v>353</v>
-      </c>
-      <c r="B64" t="s">
-        <v>389</v>
-      </c>
-      <c r="E64" t="s">
-        <v>417</v>
-      </c>
-      <c r="F64" t="s">
-        <v>443</v>
-      </c>
-      <c r="H64" t="s">
-        <v>464</v>
-      </c>
-      <c r="I64" t="s">
-        <v>502</v>
-      </c>
-      <c r="J64" t="s">
-        <v>184</v>
-      </c>
-      <c r="M64" t="s">
-        <v>508</v>
-      </c>
-      <c r="N64" t="s">
-        <v>514</v>
-      </c>
-      <c r="O64" t="s">
-        <v>195</v>
-      </c>
-      <c r="P64" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>563</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" t="s">
-        <v>354</v>
-      </c>
-      <c r="B65" t="s">
-        <v>390</v>
-      </c>
-      <c r="E65" t="s">
-        <v>417</v>
-      </c>
-      <c r="F65" t="s">
-        <v>443</v>
-      </c>
-      <c r="G65" t="s">
-        <v>390</v>
-      </c>
-      <c r="H65" t="s">
-        <v>464</v>
-      </c>
-      <c r="I65" t="s">
-        <v>503</v>
-      </c>
-      <c r="J65" t="s">
-        <v>184</v>
-      </c>
-      <c r="M65" t="s">
-        <v>185</v>
-      </c>
-      <c r="N65" t="s">
-        <v>189</v>
-      </c>
-      <c r="O65" t="s">
-        <v>195</v>
-      </c>
-      <c r="P65" t="s">
-        <v>540</v>
-      </c>
-      <c r="S65" t="s">
-        <v>576</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="V65" t="s">
-        <v>276</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="A66" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" t="s">
-        <v>122</v>
-      </c>
-      <c r="G66" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I66" t="s">
-        <v>182</v>
-      </c>
-      <c r="J66" t="s">
-        <v>184</v>
-      </c>
-      <c r="M66" t="s">
-        <v>185</v>
-      </c>
-      <c r="N66" t="s">
-        <v>187</v>
-      </c>
-      <c r="O66" t="s">
-        <v>193</v>
-      </c>
-      <c r="P66" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>221</v>
-      </c>
-      <c r="S66" t="s">
-        <v>245</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="A67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" t="s">
-        <v>106</v>
-      </c>
-      <c r="F67" t="s">
-        <v>122</v>
-      </c>
-      <c r="G67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H67" t="s">
-        <v>151</v>
-      </c>
-      <c r="I67" t="s">
-        <v>183</v>
-      </c>
-      <c r="J67" t="s">
-        <v>184</v>
-      </c>
-      <c r="M67" t="s">
-        <v>185</v>
-      </c>
-      <c r="N67" t="s">
-        <v>191</v>
-      </c>
-      <c r="O67" t="s">
-        <v>193</v>
-      </c>
-      <c r="P67" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>221</v>
-      </c>
-      <c r="S67" t="s">
-        <v>246</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="W67" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -8093,174 +7427,149 @@
     <hyperlink ref="V19" r:id="rId62"/>
     <hyperlink ref="W19" r:id="rId63"/>
     <hyperlink ref="T20" r:id="rId64"/>
-    <hyperlink ref="W20" r:id="rId65"/>
-    <hyperlink ref="T21" r:id="rId66"/>
-    <hyperlink ref="U21" r:id="rId67"/>
-    <hyperlink ref="V21" r:id="rId68"/>
-    <hyperlink ref="W21" r:id="rId69"/>
-    <hyperlink ref="T22" r:id="rId70"/>
-    <hyperlink ref="U22" r:id="rId71"/>
-    <hyperlink ref="V22" r:id="rId72"/>
-    <hyperlink ref="W22" r:id="rId73"/>
-    <hyperlink ref="T23" r:id="rId74"/>
-    <hyperlink ref="U23" r:id="rId75"/>
-    <hyperlink ref="V23" r:id="rId76"/>
-    <hyperlink ref="W23" r:id="rId77"/>
-    <hyperlink ref="T24" r:id="rId78"/>
-    <hyperlink ref="U24" r:id="rId79"/>
-    <hyperlink ref="V24" r:id="rId80"/>
-    <hyperlink ref="W24" r:id="rId81"/>
-    <hyperlink ref="T25" r:id="rId82"/>
-    <hyperlink ref="U25" r:id="rId83"/>
-    <hyperlink ref="W25" r:id="rId84"/>
-    <hyperlink ref="T26" r:id="rId85"/>
-    <hyperlink ref="U26" r:id="rId86"/>
-    <hyperlink ref="V26" r:id="rId87"/>
-    <hyperlink ref="W26" r:id="rId88"/>
-    <hyperlink ref="T27" r:id="rId89"/>
-    <hyperlink ref="U27" r:id="rId90"/>
-    <hyperlink ref="V27" r:id="rId91"/>
-    <hyperlink ref="W27" r:id="rId92"/>
-    <hyperlink ref="T28" r:id="rId93"/>
-    <hyperlink ref="U28" r:id="rId94"/>
-    <hyperlink ref="V28" r:id="rId95"/>
-    <hyperlink ref="W28" r:id="rId96"/>
-    <hyperlink ref="T29" r:id="rId97"/>
-    <hyperlink ref="U29" r:id="rId98"/>
-    <hyperlink ref="V29" r:id="rId99"/>
-    <hyperlink ref="W29" r:id="rId100"/>
-    <hyperlink ref="T30" r:id="rId101"/>
-    <hyperlink ref="U30" r:id="rId102"/>
-    <hyperlink ref="V30" r:id="rId103"/>
-    <hyperlink ref="W30" r:id="rId104"/>
-    <hyperlink ref="T31" r:id="rId105"/>
-    <hyperlink ref="V31" r:id="rId106"/>
-    <hyperlink ref="W31" r:id="rId107"/>
-    <hyperlink ref="T32" r:id="rId108"/>
-    <hyperlink ref="U32" r:id="rId109"/>
-    <hyperlink ref="V32" r:id="rId110"/>
-    <hyperlink ref="W32" r:id="rId111"/>
-    <hyperlink ref="T33" r:id="rId112"/>
-    <hyperlink ref="U33" r:id="rId113" location="operations"/>
-    <hyperlink ref="V33" r:id="rId114"/>
-    <hyperlink ref="W33" r:id="rId115"/>
-    <hyperlink ref="T34" r:id="rId116"/>
-    <hyperlink ref="U34" r:id="rId117"/>
-    <hyperlink ref="V34" r:id="rId118"/>
-    <hyperlink ref="W34" r:id="rId119"/>
-    <hyperlink ref="T35" r:id="rId120"/>
-    <hyperlink ref="U35" r:id="rId121"/>
-    <hyperlink ref="V35" r:id="rId122"/>
-    <hyperlink ref="W35" r:id="rId123"/>
-    <hyperlink ref="T36" r:id="rId124"/>
-    <hyperlink ref="U36" r:id="rId125"/>
-    <hyperlink ref="V36" r:id="rId126"/>
-    <hyperlink ref="W36" r:id="rId127"/>
-    <hyperlink ref="T37" r:id="rId128"/>
-    <hyperlink ref="U37" r:id="rId129"/>
-    <hyperlink ref="V37" r:id="rId130"/>
-    <hyperlink ref="W37" r:id="rId131"/>
-    <hyperlink ref="T38" r:id="rId132"/>
-    <hyperlink ref="U38" r:id="rId133"/>
-    <hyperlink ref="V38" r:id="rId134"/>
-    <hyperlink ref="W38" r:id="rId135"/>
-    <hyperlink ref="T39" r:id="rId136"/>
-    <hyperlink ref="V39" r:id="rId137"/>
-    <hyperlink ref="W39" r:id="rId138"/>
-    <hyperlink ref="T40" r:id="rId139"/>
-    <hyperlink ref="U40" r:id="rId140" location="new-afton-mine"/>
-    <hyperlink ref="V40" r:id="rId141"/>
-    <hyperlink ref="W40" r:id="rId142"/>
-    <hyperlink ref="T41" r:id="rId143"/>
-    <hyperlink ref="U41" r:id="rId144" location="rainy-river-mine"/>
-    <hyperlink ref="V41" r:id="rId145"/>
-    <hyperlink ref="W41" r:id="rId146"/>
-    <hyperlink ref="T42" r:id="rId147"/>
-    <hyperlink ref="U42" r:id="rId148"/>
-    <hyperlink ref="V42" r:id="rId149"/>
-    <hyperlink ref="W42" r:id="rId150"/>
-    <hyperlink ref="T43" r:id="rId151"/>
-    <hyperlink ref="U43" r:id="rId152"/>
-    <hyperlink ref="V43" r:id="rId153"/>
-    <hyperlink ref="W43" r:id="rId154"/>
-    <hyperlink ref="T44" r:id="rId155"/>
-    <hyperlink ref="U44" r:id="rId156"/>
-    <hyperlink ref="V44" r:id="rId157"/>
-    <hyperlink ref="W44" r:id="rId158"/>
-    <hyperlink ref="T45" r:id="rId159"/>
+    <hyperlink ref="U20" r:id="rId65"/>
+    <hyperlink ref="V20" r:id="rId66"/>
+    <hyperlink ref="W20" r:id="rId67"/>
+    <hyperlink ref="T21" r:id="rId68"/>
+    <hyperlink ref="U21" r:id="rId69"/>
+    <hyperlink ref="V21" r:id="rId70"/>
+    <hyperlink ref="W21" r:id="rId71"/>
+    <hyperlink ref="T22" r:id="rId72"/>
+    <hyperlink ref="U22" r:id="rId73"/>
+    <hyperlink ref="V22" r:id="rId74"/>
+    <hyperlink ref="W22" r:id="rId75"/>
+    <hyperlink ref="T23" r:id="rId76"/>
+    <hyperlink ref="U23" r:id="rId77"/>
+    <hyperlink ref="V23" r:id="rId78"/>
+    <hyperlink ref="W23" r:id="rId79"/>
+    <hyperlink ref="T24" r:id="rId80"/>
+    <hyperlink ref="U24" r:id="rId81"/>
+    <hyperlink ref="W24" r:id="rId82"/>
+    <hyperlink ref="T25" r:id="rId83"/>
+    <hyperlink ref="U25" r:id="rId84"/>
+    <hyperlink ref="V25" r:id="rId85"/>
+    <hyperlink ref="W25" r:id="rId86"/>
+    <hyperlink ref="T26" r:id="rId87"/>
+    <hyperlink ref="U26" r:id="rId88"/>
+    <hyperlink ref="V26" r:id="rId89"/>
+    <hyperlink ref="W26" r:id="rId90"/>
+    <hyperlink ref="T27" r:id="rId91"/>
+    <hyperlink ref="U27" r:id="rId92"/>
+    <hyperlink ref="V27" r:id="rId93"/>
+    <hyperlink ref="W27" r:id="rId94"/>
+    <hyperlink ref="T28" r:id="rId95"/>
+    <hyperlink ref="V28" r:id="rId96"/>
+    <hyperlink ref="W28" r:id="rId97"/>
+    <hyperlink ref="T29" r:id="rId98"/>
+    <hyperlink ref="U29" r:id="rId99"/>
+    <hyperlink ref="V29" r:id="rId100"/>
+    <hyperlink ref="W29" r:id="rId101"/>
+    <hyperlink ref="T30" r:id="rId102"/>
+    <hyperlink ref="U30" r:id="rId103" location="operations"/>
+    <hyperlink ref="V30" r:id="rId104"/>
+    <hyperlink ref="W30" r:id="rId105"/>
+    <hyperlink ref="T31" r:id="rId106"/>
+    <hyperlink ref="U31" r:id="rId107"/>
+    <hyperlink ref="V31" r:id="rId108"/>
+    <hyperlink ref="W31" r:id="rId109"/>
+    <hyperlink ref="T32" r:id="rId110"/>
+    <hyperlink ref="U32" r:id="rId111"/>
+    <hyperlink ref="V32" r:id="rId112"/>
+    <hyperlink ref="W32" r:id="rId113"/>
+    <hyperlink ref="T33" r:id="rId114"/>
+    <hyperlink ref="U33" r:id="rId115"/>
+    <hyperlink ref="V33" r:id="rId116"/>
+    <hyperlink ref="W33" r:id="rId117"/>
+    <hyperlink ref="T34" r:id="rId118"/>
+    <hyperlink ref="U34" r:id="rId119"/>
+    <hyperlink ref="V34" r:id="rId120"/>
+    <hyperlink ref="W34" r:id="rId121"/>
+    <hyperlink ref="T35" r:id="rId122"/>
+    <hyperlink ref="U35" r:id="rId123"/>
+    <hyperlink ref="V35" r:id="rId124"/>
+    <hyperlink ref="W35" r:id="rId125"/>
+    <hyperlink ref="T36" r:id="rId126"/>
+    <hyperlink ref="U36" r:id="rId127" location="new-afton-mine"/>
+    <hyperlink ref="V36" r:id="rId128"/>
+    <hyperlink ref="W36" r:id="rId129"/>
+    <hyperlink ref="T37" r:id="rId130"/>
+    <hyperlink ref="U37" r:id="rId131" location="rainy-river-mine"/>
+    <hyperlink ref="V37" r:id="rId132"/>
+    <hyperlink ref="W37" r:id="rId133"/>
+    <hyperlink ref="T38" r:id="rId134"/>
+    <hyperlink ref="U38" r:id="rId135"/>
+    <hyperlink ref="V38" r:id="rId136"/>
+    <hyperlink ref="W38" r:id="rId137"/>
+    <hyperlink ref="T39" r:id="rId138"/>
+    <hyperlink ref="U39" r:id="rId139"/>
+    <hyperlink ref="V39" r:id="rId140"/>
+    <hyperlink ref="W39" r:id="rId141"/>
+    <hyperlink ref="T40" r:id="rId142"/>
+    <hyperlink ref="U40" r:id="rId143"/>
+    <hyperlink ref="V40" r:id="rId144"/>
+    <hyperlink ref="W40" r:id="rId145"/>
+    <hyperlink ref="T41" r:id="rId146"/>
+    <hyperlink ref="V41" r:id="rId147"/>
+    <hyperlink ref="W41" r:id="rId148"/>
+    <hyperlink ref="T42" r:id="rId149"/>
+    <hyperlink ref="V42" r:id="rId150"/>
+    <hyperlink ref="W42" r:id="rId151"/>
+    <hyperlink ref="V43" r:id="rId152"/>
+    <hyperlink ref="W43" r:id="rId153"/>
+    <hyperlink ref="T44" r:id="rId154"/>
+    <hyperlink ref="U44" r:id="rId155"/>
+    <hyperlink ref="V44" r:id="rId156"/>
+    <hyperlink ref="W44" r:id="rId157"/>
+    <hyperlink ref="T45" r:id="rId158"/>
+    <hyperlink ref="U45" r:id="rId159"/>
     <hyperlink ref="V45" r:id="rId160"/>
     <hyperlink ref="W45" r:id="rId161"/>
     <hyperlink ref="T46" r:id="rId162"/>
-    <hyperlink ref="V46" r:id="rId163"/>
-    <hyperlink ref="W46" r:id="rId164"/>
-    <hyperlink ref="V47" r:id="rId165"/>
-    <hyperlink ref="W47" r:id="rId166"/>
-    <hyperlink ref="T48" r:id="rId167"/>
-    <hyperlink ref="U48" r:id="rId168"/>
-    <hyperlink ref="V48" r:id="rId169"/>
-    <hyperlink ref="W48" r:id="rId170"/>
-    <hyperlink ref="T49" r:id="rId171"/>
-    <hyperlink ref="U49" r:id="rId172"/>
-    <hyperlink ref="V49" r:id="rId173"/>
-    <hyperlink ref="W49" r:id="rId174"/>
-    <hyperlink ref="T50" r:id="rId175"/>
-    <hyperlink ref="U50" r:id="rId176"/>
-    <hyperlink ref="V50" r:id="rId177"/>
-    <hyperlink ref="W50" r:id="rId178"/>
-    <hyperlink ref="T51" r:id="rId179"/>
-    <hyperlink ref="U51" r:id="rId180"/>
-    <hyperlink ref="V51" r:id="rId181"/>
-    <hyperlink ref="W51" r:id="rId182"/>
-    <hyperlink ref="T52" r:id="rId183"/>
-    <hyperlink ref="U52" r:id="rId184"/>
-    <hyperlink ref="W52" r:id="rId185"/>
-    <hyperlink ref="T53" r:id="rId186"/>
-    <hyperlink ref="U53" r:id="rId187"/>
-    <hyperlink ref="V53" r:id="rId188"/>
+    <hyperlink ref="U46" r:id="rId163"/>
+    <hyperlink ref="V46" r:id="rId164"/>
+    <hyperlink ref="W46" r:id="rId165"/>
+    <hyperlink ref="T47" r:id="rId166"/>
+    <hyperlink ref="U47" r:id="rId167"/>
+    <hyperlink ref="V47" r:id="rId168"/>
+    <hyperlink ref="W47" r:id="rId169"/>
+    <hyperlink ref="T48" r:id="rId170"/>
+    <hyperlink ref="U48" r:id="rId171"/>
+    <hyperlink ref="W48" r:id="rId172"/>
+    <hyperlink ref="T49" r:id="rId173"/>
+    <hyperlink ref="U49" r:id="rId174"/>
+    <hyperlink ref="V49" r:id="rId175"/>
+    <hyperlink ref="W49" r:id="rId176"/>
+    <hyperlink ref="T50" r:id="rId177"/>
+    <hyperlink ref="U50" r:id="rId178"/>
+    <hyperlink ref="V50" r:id="rId179"/>
+    <hyperlink ref="W50" r:id="rId180"/>
+    <hyperlink ref="T51" r:id="rId181"/>
+    <hyperlink ref="U51" r:id="rId182"/>
+    <hyperlink ref="V51" r:id="rId183"/>
+    <hyperlink ref="W51" r:id="rId184"/>
+    <hyperlink ref="T52" r:id="rId185"/>
+    <hyperlink ref="U52" r:id="rId186"/>
+    <hyperlink ref="V52" r:id="rId187"/>
+    <hyperlink ref="W52" r:id="rId188"/>
     <hyperlink ref="W53" r:id="rId189"/>
     <hyperlink ref="T54" r:id="rId190"/>
-    <hyperlink ref="U54" r:id="rId191"/>
-    <hyperlink ref="V54" r:id="rId192"/>
-    <hyperlink ref="W54" r:id="rId193"/>
-    <hyperlink ref="T55" r:id="rId194"/>
-    <hyperlink ref="U55" r:id="rId195"/>
-    <hyperlink ref="V55" r:id="rId196"/>
-    <hyperlink ref="W55" r:id="rId197"/>
-    <hyperlink ref="T56" r:id="rId198"/>
+    <hyperlink ref="W54" r:id="rId191"/>
+    <hyperlink ref="T55" r:id="rId192"/>
+    <hyperlink ref="U55" r:id="rId193"/>
+    <hyperlink ref="V55" r:id="rId194"/>
+    <hyperlink ref="W55" r:id="rId195"/>
+    <hyperlink ref="T56" r:id="rId196"/>
+    <hyperlink ref="U56" r:id="rId197"/>
+    <hyperlink ref="V56" r:id="rId198"/>
     <hyperlink ref="W56" r:id="rId199"/>
     <hyperlink ref="T57" r:id="rId200"/>
     <hyperlink ref="U57" r:id="rId201"/>
     <hyperlink ref="V57" r:id="rId202"/>
     <hyperlink ref="W57" r:id="rId203"/>
-    <hyperlink ref="W58" r:id="rId204"/>
-    <hyperlink ref="T59" r:id="rId205"/>
-    <hyperlink ref="W59" r:id="rId206"/>
-    <hyperlink ref="T60" r:id="rId207"/>
-    <hyperlink ref="V60" r:id="rId208"/>
-    <hyperlink ref="W60" r:id="rId209"/>
-    <hyperlink ref="W61" r:id="rId210"/>
-    <hyperlink ref="T62" r:id="rId211"/>
-    <hyperlink ref="U62" r:id="rId212"/>
-    <hyperlink ref="V62" r:id="rId213"/>
-    <hyperlink ref="W62" r:id="rId214"/>
-    <hyperlink ref="T63" r:id="rId215"/>
-    <hyperlink ref="U63" r:id="rId216"/>
-    <hyperlink ref="W63" r:id="rId217"/>
-    <hyperlink ref="T64" r:id="rId218"/>
-    <hyperlink ref="U64" r:id="rId219"/>
-    <hyperlink ref="V64" r:id="rId220"/>
-    <hyperlink ref="W64" r:id="rId221"/>
-    <hyperlink ref="T65" r:id="rId222"/>
-    <hyperlink ref="U65" r:id="rId223"/>
-    <hyperlink ref="W65" r:id="rId224"/>
-    <hyperlink ref="T66" r:id="rId225"/>
-    <hyperlink ref="U66" r:id="rId226"/>
-    <hyperlink ref="V66" r:id="rId227"/>
-    <hyperlink ref="W66" r:id="rId228"/>
-    <hyperlink ref="T67" r:id="rId229"/>
-    <hyperlink ref="U67" r:id="rId230"/>
-    <hyperlink ref="V67" r:id="rId231"/>
-    <hyperlink ref="W67" r:id="rId232"/>
+    <hyperlink ref="T58" r:id="rId204"/>
+    <hyperlink ref="U58" r:id="rId205"/>
+    <hyperlink ref="V58" r:id="rId206"/>
+    <hyperlink ref="W58" r:id="rId207"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9064,10 +8373,10 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E14" t="s">
         <v>97</v>
@@ -9076,13 +8385,13 @@
         <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="H14" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="I14" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="J14" t="s">
         <v>184</v>
@@ -9094,10 +8403,10 @@
         <v>190</v>
       </c>
       <c r="O14" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
       <c r="P14" t="s">
-        <v>529</v>
+        <v>481</v>
       </c>
       <c r="Q14" t="s">
         <v>208</v>
@@ -9109,10 +8418,10 @@
         <v>253</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>636</v>
+        <v>566</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>318</v>
@@ -9297,25 +8606,25 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E18" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="F18" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="G18" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="H18" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="I18" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="J18" t="s">
         <v>184</v>
@@ -9327,22 +8636,22 @@
         <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="P18" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="Q18" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>590</v>
+        <v>528</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>615</v>
+        <v>549</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>639</v>
+        <v>569</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>318</v>
@@ -10052,25 +9361,25 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
+        <v>392</v>
+      </c>
+      <c r="F31" t="s">
         <v>413</v>
       </c>
-      <c r="F31" t="s">
-        <v>439</v>
-      </c>
       <c r="G31" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="H31" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="I31" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="J31" t="s">
         <v>184</v>
@@ -10082,22 +9391,22 @@
         <v>187</v>
       </c>
       <c r="O31" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="P31" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="Q31" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>598</v>
+        <v>535</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>646</v>
+        <v>575</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>318</v>
